--- a/Info and data/Features and meanings.xlsx
+++ b/Info and data/Features and meanings.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\Applied-Statistics-Project\Info and data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45276E1-779A-455C-A86C-FB036FB7B5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC65048D-34E5-4973-ACA6-925454F08E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{3DA52822-CFDA-408E-B1C3-39FC0A4F79A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Features and meanings" sheetId="1" r:id="rId1"/>
+    <sheet name="Student features and meanings" sheetId="1" r:id="rId1"/>
+    <sheet name="School features and meanings" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Features and meanings'!$A$1:$E$1119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Student features and meanings'!$A$1:$E$1119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="2227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="2596">
   <si>
     <t>CNTRYID</t>
   </si>
@@ -6719,6 +6720,1113 @@
   </si>
   <si>
     <t>Status (x=used, y=potential)</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>LANGTEST</t>
+  </si>
+  <si>
+    <t>Language of Questionnaire/Assessment</t>
+  </si>
+  <si>
+    <t>SC001Q01TA</t>
+  </si>
+  <si>
+    <t>Which of the following definitions best describes the community in which your school is located?</t>
+  </si>
+  <si>
+    <t>SC013Q01TA</t>
+  </si>
+  <si>
+    <t>Is your school a public or a private school?</t>
+  </si>
+  <si>
+    <t>SC016Q01TA</t>
+  </si>
+  <si>
+    <t>Percentage of total funding for school year from: Government</t>
+  </si>
+  <si>
+    <t>SC016Q02TA</t>
+  </si>
+  <si>
+    <t>Percentage of total funding for school year from: Student fees or school charges paid by parents</t>
+  </si>
+  <si>
+    <t>SC016Q03TA</t>
+  </si>
+  <si>
+    <t>Percentage of total funding for school year from: Benefactors, donations, bequests, sponsorships, parent fundraising</t>
+  </si>
+  <si>
+    <t>SC016Q04TA</t>
+  </si>
+  <si>
+    <t>Percentage of total funding for school year from: Other</t>
+  </si>
+  <si>
+    <t>SC017Q01NA</t>
+  </si>
+  <si>
+    <t>School's instruction hindered by: A lack of teaching staff.</t>
+  </si>
+  <si>
+    <t>SC017Q02NA</t>
+  </si>
+  <si>
+    <t>School's instruction hindered by: Inadequate or poorly qualified teaching staff.</t>
+  </si>
+  <si>
+    <t>SC017Q03NA</t>
+  </si>
+  <si>
+    <t>School's instruction hindered by: A lack of assisting staff.</t>
+  </si>
+  <si>
+    <t>SC017Q04NA</t>
+  </si>
+  <si>
+    <t>School's instruction hindered by: Inadequate or poorly qualified assisting staff.</t>
+  </si>
+  <si>
+    <t>SC017Q05NA</t>
+  </si>
+  <si>
+    <t>School's instruction hindered by: A lack of educational material [...]</t>
+  </si>
+  <si>
+    <t>SC017Q06NA</t>
+  </si>
+  <si>
+    <t>School's instruction hindered by: Inadequate or poor quality educational material [...]</t>
+  </si>
+  <si>
+    <t>SC017Q07NA</t>
+  </si>
+  <si>
+    <t>School's instruction hindered by: A lack of physical infrastructure [...]</t>
+  </si>
+  <si>
+    <t>SC017Q08NA</t>
+  </si>
+  <si>
+    <t>School's instruction hindered by: Inadequate or poor quality physical infrastructure [...]</t>
+  </si>
+  <si>
+    <t>SC161Q01SA</t>
+  </si>
+  <si>
+    <t>Main responsibility for career guidance at school: Not applicable, career guidance is not available in this school</t>
+  </si>
+  <si>
+    <t>SC161Q02SA</t>
+  </si>
+  <si>
+    <t>Main responsibility for career guidance at school: All teachers share the responsibility for career guidance</t>
+  </si>
+  <si>
+    <t>SC161Q03SA</t>
+  </si>
+  <si>
+    <t>Main responsibility for career guidance at school: Specific teachers have the main responsibility for career guidance</t>
+  </si>
+  <si>
+    <t>SC161Q04SA</t>
+  </si>
+  <si>
+    <t>Main responsibility for career guidance at school: We have [...] career guidance counsellors employed at school</t>
+  </si>
+  <si>
+    <t>SC161Q05SA</t>
+  </si>
+  <si>
+    <t>Main responsibility for career guidance at school: We have [...] career guidance counsellors who regularly visit [...]</t>
+  </si>
+  <si>
+    <t>SC162Q01SA</t>
+  </si>
+  <si>
+    <t>If career guidance is available at your school, which of the statements below best describes the situation for [...]</t>
+  </si>
+  <si>
+    <t>SC155Q01HA</t>
+  </si>
+  <si>
+    <t>School's capacity using digital devices: The number of digital devices connected to the Internet is sufficient</t>
+  </si>
+  <si>
+    <t>SC155Q02HA</t>
+  </si>
+  <si>
+    <t>School's capacity using digital devices: The school's Internet bandwidth or speed is sufficient</t>
+  </si>
+  <si>
+    <t>SC155Q03HA</t>
+  </si>
+  <si>
+    <t>School's capacity using digital devices: The number of digital devices for instruction is sufficient</t>
+  </si>
+  <si>
+    <t>SC155Q04HA</t>
+  </si>
+  <si>
+    <t>School's capacity using digital devices: Digital devices [...] are sufficiently powerful in terms of computing capacity</t>
+  </si>
+  <si>
+    <t>SC155Q05HA</t>
+  </si>
+  <si>
+    <t>School's capacity using digital devices: The availability of adequate software is sufficient</t>
+  </si>
+  <si>
+    <t>SC155Q06HA</t>
+  </si>
+  <si>
+    <t>School's capacity using digital devices: Teachers have the [...] skills to integrate digital devices in instruction</t>
+  </si>
+  <si>
+    <t>SC155Q07HA</t>
+  </si>
+  <si>
+    <t>School's capacity using digital devices: Teachers have sufficient time to prepare lessons integrating digital devices</t>
+  </si>
+  <si>
+    <t>SC155Q08HA</t>
+  </si>
+  <si>
+    <t>School's capacity using digital devices: Effective professional resources for teachers to learn how to use digital [...]</t>
+  </si>
+  <si>
+    <t>SC155Q09HA</t>
+  </si>
+  <si>
+    <t>School's capacity using digital devices: An effective online learning support platform is available</t>
+  </si>
+  <si>
+    <t>SC155Q10HA</t>
+  </si>
+  <si>
+    <t>School's capacity using digital devices: Teachers are provided with incentives to integrate digital devices in [...]</t>
+  </si>
+  <si>
+    <t>SC155Q11HA</t>
+  </si>
+  <si>
+    <t>School's capacity using digital devices: The school has sufficient qualified technical assistant staff</t>
+  </si>
+  <si>
+    <t>SC156Q01HA</t>
+  </si>
+  <si>
+    <t>At school: Its own written statement about the use of digital devices</t>
+  </si>
+  <si>
+    <t>SC156Q02HA</t>
+  </si>
+  <si>
+    <t>At school: Its own written statement specifically about the use of digital devices for pedagogical purposes</t>
+  </si>
+  <si>
+    <t>SC156Q03HA</t>
+  </si>
+  <si>
+    <t>At school: A programme to use digital devices for teaching and learning in specific subjects</t>
+  </si>
+  <si>
+    <t>SC156Q04HA</t>
+  </si>
+  <si>
+    <t>At school: Regular discussions with teaching staff about the use of digital devices for pedagogical purposes</t>
+  </si>
+  <si>
+    <t>SC156Q05HA</t>
+  </si>
+  <si>
+    <t>At school: A specific programme to prepare students for responsible Internet behaviour</t>
+  </si>
+  <si>
+    <t>SC156Q06HA</t>
+  </si>
+  <si>
+    <t>At school: A specific policy about using Social Networks (&lt;Facebook&gt;, etc.) in teaching and learning</t>
+  </si>
+  <si>
+    <t>SC156Q07HA</t>
+  </si>
+  <si>
+    <t>At school: A specific programme to promote collaboration on the use of digital devices among teachers</t>
+  </si>
+  <si>
+    <t>SC156Q08HA</t>
+  </si>
+  <si>
+    <t>At school: Scheduled time for teachers to meet to share, evaluate or develop instructional materials and [...]</t>
+  </si>
+  <si>
+    <t>SC011Q01TA</t>
+  </si>
+  <si>
+    <t>SC012Q01TA</t>
+  </si>
+  <si>
+    <t>Student admission to school: Student's record of academic performance (including placement tests)</t>
+  </si>
+  <si>
+    <t>SC012Q02TA</t>
+  </si>
+  <si>
+    <t>Student admission to school: Recommendation of feeder schools</t>
+  </si>
+  <si>
+    <t>SC012Q03TA</t>
+  </si>
+  <si>
+    <t>Student admission to school: Parents' endorsement of the instructional or religious philosophy of the school</t>
+  </si>
+  <si>
+    <t>SC012Q04TA</t>
+  </si>
+  <si>
+    <t>Student admission to school: Whether the student requires or is interested in a special programme</t>
+  </si>
+  <si>
+    <t>SC012Q05TA</t>
+  </si>
+  <si>
+    <t>Student admission to school: Preference given to family members of current or former students</t>
+  </si>
+  <si>
+    <t>SC012Q06TA</t>
+  </si>
+  <si>
+    <t>Student admission to school: Residence in a particular area</t>
+  </si>
+  <si>
+    <t>SC012Q07TA</t>
+  </si>
+  <si>
+    <t>Student admission to school: Other</t>
+  </si>
+  <si>
+    <t>SC042Q01TA</t>
+  </si>
+  <si>
+    <t>School's policy for &lt;national modal grade for 15-year-olds&gt;: Students are grouped by ability into different classes.</t>
+  </si>
+  <si>
+    <t>SC042Q02TA</t>
+  </si>
+  <si>
+    <t>School's policy for &lt;national modal grade for 15-year-olds&gt;: Students are grouped by ability within their classes.</t>
+  </si>
+  <si>
+    <t>SC154Q01HA</t>
+  </si>
+  <si>
+    <t>School's use of assessments of students: To guide students' learning</t>
+  </si>
+  <si>
+    <t>SC154Q02WA</t>
+  </si>
+  <si>
+    <t>School's use of assessments of students: To inform parents about their child's progress</t>
+  </si>
+  <si>
+    <t>SC154Q03WA</t>
+  </si>
+  <si>
+    <t>School's use of assessments of students: To make decisions about students' retention or promotion</t>
+  </si>
+  <si>
+    <t>SC154Q04WA</t>
+  </si>
+  <si>
+    <t>School's use of assessments of students: To group students for instructional purposes</t>
+  </si>
+  <si>
+    <t>SC154Q05WA</t>
+  </si>
+  <si>
+    <t>School's use of assessments of students: To compare the school to &lt;district or national&gt; performance</t>
+  </si>
+  <si>
+    <t>SC154Q06WA</t>
+  </si>
+  <si>
+    <t>School's use of assessments of students: To monitor the schools progress from year to year</t>
+  </si>
+  <si>
+    <t>SC154Q07WA</t>
+  </si>
+  <si>
+    <t>School's use of assessments of students: To make judgements about teachers' effectiveness</t>
+  </si>
+  <si>
+    <t>SC154Q08WA</t>
+  </si>
+  <si>
+    <t>School's use of assessments of students: To identify aspects of instruction or the curriculum that could be improved</t>
+  </si>
+  <si>
+    <t>SC154Q09HA</t>
+  </si>
+  <si>
+    <t>School's use of assessments of students: To adapt teaching to the students' needs</t>
+  </si>
+  <si>
+    <t>SC154Q10WA</t>
+  </si>
+  <si>
+    <t>School's use of assessments of students: To compare the school with other schools</t>
+  </si>
+  <si>
+    <t>SC154Q11HA</t>
+  </si>
+  <si>
+    <t>School's use of assessments of students: To award certificates to students</t>
+  </si>
+  <si>
+    <t>SC036Q01TA</t>
+  </si>
+  <si>
+    <t>Use of achievement data in school: Achievement data are posted publicly (e.g. in the media)</t>
+  </si>
+  <si>
+    <t>SC036Q02TA</t>
+  </si>
+  <si>
+    <t>Use of achievement data in school: Achievement data are tracked over time by an administrative authority</t>
+  </si>
+  <si>
+    <t>SC036Q03NA</t>
+  </si>
+  <si>
+    <t>Use of achievement data in school: Achievement data are provided directly to parents</t>
+  </si>
+  <si>
+    <t>SC037Q01TA</t>
+  </si>
+  <si>
+    <t>Quality assurance at school: Internal evaluation/Self-evaluation</t>
+  </si>
+  <si>
+    <t>SC037Q02TA</t>
+  </si>
+  <si>
+    <t>Quality assurance at school: External evaluation</t>
+  </si>
+  <si>
+    <t>SC037Q03TA</t>
+  </si>
+  <si>
+    <t>Quality assurance at school: Written specification of the school's curricular profile and educational goals</t>
+  </si>
+  <si>
+    <t>SC037Q04TA</t>
+  </si>
+  <si>
+    <t>Quality assurance at school: Written specification of student performance standards</t>
+  </si>
+  <si>
+    <t>SC037Q05NA</t>
+  </si>
+  <si>
+    <t>Quality assurance at school: Systematic recording of data such as [...] attendance and professional development</t>
+  </si>
+  <si>
+    <t>SC037Q06NA</t>
+  </si>
+  <si>
+    <t>Quality assurance at school: Systematic recording of student test results and graduation rates</t>
+  </si>
+  <si>
+    <t>SC037Q07TA</t>
+  </si>
+  <si>
+    <t>Quality assurance at school: Seeking written feedback from students (e.g. regarding lessons, teachers or resources)</t>
+  </si>
+  <si>
+    <t>SC037Q08TA</t>
+  </si>
+  <si>
+    <t>Quality assurance at school: Teacher mentoring</t>
+  </si>
+  <si>
+    <t>SC037Q09TA</t>
+  </si>
+  <si>
+    <t>Quality assurance at school: Regular consultation aimed at school improvement [...] over a period of at least six months</t>
+  </si>
+  <si>
+    <t>SC037Q10NA</t>
+  </si>
+  <si>
+    <t>Quality assurance at school: Implementation of a standardised policy for reading subjects [...]</t>
+  </si>
+  <si>
+    <t>SC165Q01HA</t>
+  </si>
+  <si>
+    <t>Teachers' practices: [...] students learn about the histories of diverse cultural groups that live in &lt;country of test&gt;.</t>
+  </si>
+  <si>
+    <t>SC165Q02HA</t>
+  </si>
+  <si>
+    <t>Teachers' practices: [...] students learn about the histories of diverse cultural groups that live in other countries.</t>
+  </si>
+  <si>
+    <t>SC165Q03HA</t>
+  </si>
+  <si>
+    <t>Teachers' practices: [...] students learn about the cultures [...] of [...] groups that live in &lt;country of test&gt;</t>
+  </si>
+  <si>
+    <t>SC165Q04HA</t>
+  </si>
+  <si>
+    <t>Teachers' practices: [...] students learn about different cultural perspectives on historical and social events.</t>
+  </si>
+  <si>
+    <t>SC165Q05HA</t>
+  </si>
+  <si>
+    <t>Teachers' practices: Our school supports activities that encourage students expression of diverse identities [...]</t>
+  </si>
+  <si>
+    <t>SC165Q06HA</t>
+  </si>
+  <si>
+    <t>Teachers' practices: Our school offers an exchange programme with schools in other countries.</t>
+  </si>
+  <si>
+    <t>SC165Q07HA</t>
+  </si>
+  <si>
+    <t>Teachers' practices: Our school organises multicultural events (e.g. cultural diversity day).</t>
+  </si>
+  <si>
+    <t>SC165Q08HA</t>
+  </si>
+  <si>
+    <t>Teachers' practices: In our school, we celebrate festivities from other cultures.</t>
+  </si>
+  <si>
+    <t>SC165Q09HA</t>
+  </si>
+  <si>
+    <t>Teachers' practices: In our school, students are encouraged to communicate with people from other cultures via [...]</t>
+  </si>
+  <si>
+    <t>SC165Q10HA</t>
+  </si>
+  <si>
+    <t>Teachers' practices: Our school adopts different approaches to educate students about cultural differences [...]</t>
+  </si>
+  <si>
+    <t>SC166Q02HA</t>
+  </si>
+  <si>
+    <t>Opinion shared by teaching staff: It is important for students to learn that people from other cultures can have [...]</t>
+  </si>
+  <si>
+    <t>SC166Q03HA</t>
+  </si>
+  <si>
+    <t>Opinion shared by teaching staff: Respecting other cultures is something that students should learn as early as possible</t>
+  </si>
+  <si>
+    <t>SC166Q05HA</t>
+  </si>
+  <si>
+    <t>Opinion shared by teaching staff: In the classroom, it is important that students of different origins recognise [...]</t>
+  </si>
+  <si>
+    <t>SC166Q06HA</t>
+  </si>
+  <si>
+    <t>Opinion shared by teaching staff: When there are conflicts between students of different origins, they should be [...]</t>
+  </si>
+  <si>
+    <t>SC167Q01HA</t>
+  </si>
+  <si>
+    <t>Curriculum for the following in &lt;national modal grade for 15-year-olds&gt;: Communicating with people from different [...]</t>
+  </si>
+  <si>
+    <t>SC167Q02HA</t>
+  </si>
+  <si>
+    <t>Curriculum for the following in &lt;national modal grade for 15-year-olds&gt;: Knowledge of different cultures</t>
+  </si>
+  <si>
+    <t>SC167Q03HA</t>
+  </si>
+  <si>
+    <t>Curriculum for the following in &lt;national modal grade for 15-year-olds&gt;: Openness to intercultural experiences</t>
+  </si>
+  <si>
+    <t>SC167Q04HA</t>
+  </si>
+  <si>
+    <t>Curriculum for the following in &lt;national modal grade for 15-year-olds&gt;: Respect for cultural diversity</t>
+  </si>
+  <si>
+    <t>SC167Q05HA</t>
+  </si>
+  <si>
+    <t>Curriculum for the following in &lt;national modal grade for 15-year-olds&gt;: Foreign languages</t>
+  </si>
+  <si>
+    <t>SC167Q06HA</t>
+  </si>
+  <si>
+    <t>Curriculum for the following in &lt;national modal grade for 15-year-olds&gt;: Critical thinking skills</t>
+  </si>
+  <si>
+    <t>SC158Q01HA</t>
+  </si>
+  <si>
+    <t>Formal curriculum in &lt;national modal grade for 15-year-olds&gt;: Climate change and global warming</t>
+  </si>
+  <si>
+    <t>SC158Q02HA</t>
+  </si>
+  <si>
+    <t>Formal curriculum in &lt;national modal grade for 15-year-olds&gt;: Global health (e.g. epidemics)</t>
+  </si>
+  <si>
+    <t>SC158Q04HA</t>
+  </si>
+  <si>
+    <t>Formal curriculum in &lt;national modal grade for 15-year-olds&gt;: Migration (movement of people)</t>
+  </si>
+  <si>
+    <t>SC158Q07HA</t>
+  </si>
+  <si>
+    <t>Formal curriculum in &lt;national modal grade for 15-year-olds&gt;: International conflicts</t>
+  </si>
+  <si>
+    <t>SC158Q08HA</t>
+  </si>
+  <si>
+    <t>Formal curriculum in &lt;national modal grade for 15-year-olds&gt;: Hunger or malnutrition in different parts of the world</t>
+  </si>
+  <si>
+    <t>SC158Q09HA</t>
+  </si>
+  <si>
+    <t>Formal curriculum in &lt;national modal grade for 15-year-olds&gt;: Causes of poverty</t>
+  </si>
+  <si>
+    <t>SC158Q12HA</t>
+  </si>
+  <si>
+    <t>Formal curriculum in &lt;national modal grade for 15-year-olds&gt;: Equality between men and women in [...] the world</t>
+  </si>
+  <si>
+    <t>SC061Q01TA</t>
+  </si>
+  <si>
+    <t>Extent to which student learning is hindered by: Student truancy</t>
+  </si>
+  <si>
+    <t>SC061Q02TA</t>
+  </si>
+  <si>
+    <t>Extent to which student learning is hindered by: Students skipping classes</t>
+  </si>
+  <si>
+    <t>SC061Q03TA</t>
+  </si>
+  <si>
+    <t>Extent to which student learning is hindered by: Students lacking respect for teachers</t>
+  </si>
+  <si>
+    <t>SC061Q04TA</t>
+  </si>
+  <si>
+    <t>Extent to which student learning is hindered by: Student use of alcohol or illegal drugs</t>
+  </si>
+  <si>
+    <t>SC061Q05TA</t>
+  </si>
+  <si>
+    <t>Extent to which student learning is hindered by: Students intimidating or bullying other students</t>
+  </si>
+  <si>
+    <t>SC061Q11HA</t>
+  </si>
+  <si>
+    <t>Extent to which student learning is hindered by: Students not being attentive</t>
+  </si>
+  <si>
+    <t>SC061Q06TA</t>
+  </si>
+  <si>
+    <t>Extent to which student learning is hindered by: Teachers not meeting individual students' needs</t>
+  </si>
+  <si>
+    <t>SC061Q07TA</t>
+  </si>
+  <si>
+    <t>Extent to which student learning is hindered by: Teacher absenteeism</t>
+  </si>
+  <si>
+    <t>SC061Q08TA</t>
+  </si>
+  <si>
+    <t>Extent to which student learning is hindered by: Staff resisting change</t>
+  </si>
+  <si>
+    <t>SC061Q09TA</t>
+  </si>
+  <si>
+    <t>Extent to which student learning is hindered by: Teachers being too strict with students</t>
+  </si>
+  <si>
+    <t>SC061Q10TA</t>
+  </si>
+  <si>
+    <t>Extent to which student learning is hindered by: Teachers not being well prepared for classes</t>
+  </si>
+  <si>
+    <t>SC002Q01TA</t>
+  </si>
+  <si>
+    <t>As of &lt;February 1, 2018&gt;, what was the total school enrolment (number of students)? Number of boys</t>
+  </si>
+  <si>
+    <t>SC002Q02TA</t>
+  </si>
+  <si>
+    <t>As of &lt;February 1, 2018&gt;, what was the total school enrolment (number of students)? Number of girls</t>
+  </si>
+  <si>
+    <t>SC048Q01NA</t>
+  </si>
+  <si>
+    <t>Percentage &lt;national modal grade for 15-year-olds&gt;: Students whose &lt;heritage language&gt; is different from &lt;test language&gt;</t>
+  </si>
+  <si>
+    <t>SC048Q02NA</t>
+  </si>
+  <si>
+    <t>Percentage &lt;national modal grade for 15-year-olds&gt;: Students with special needs</t>
+  </si>
+  <si>
+    <t>SC048Q03NA</t>
+  </si>
+  <si>
+    <t>Percentage &lt;national modal grade for 15-year-olds&gt;: Students from socioeconomically disadvantaged homes</t>
+  </si>
+  <si>
+    <t>SC004Q01TA</t>
+  </si>
+  <si>
+    <t>At your school, what is the total number of students in the &lt;national modal grade for 15-year-olds&gt;?</t>
+  </si>
+  <si>
+    <t>SC004Q02TA</t>
+  </si>
+  <si>
+    <t>Approximately, how many computers are available for these students for educational purposes?</t>
+  </si>
+  <si>
+    <t>SC004Q03TA</t>
+  </si>
+  <si>
+    <t>Approximately, how many of these computers are connected to Internet/World Wide Web?</t>
+  </si>
+  <si>
+    <t>SC004Q04NA</t>
+  </si>
+  <si>
+    <t>Approximately, how many of these computers are portable (e.g. laptop, tablet)?</t>
+  </si>
+  <si>
+    <t>SC004Q05NA</t>
+  </si>
+  <si>
+    <t>Approximately, how many interactive Whiteboards are available in the school altogether?</t>
+  </si>
+  <si>
+    <t>SC004Q06NA</t>
+  </si>
+  <si>
+    <t>Approximately, how many data projectors are available in the school altogether?</t>
+  </si>
+  <si>
+    <t>SC004Q07NA</t>
+  </si>
+  <si>
+    <t>Approximately, how many computers with Internet connection are available for teachers in your school?</t>
+  </si>
+  <si>
+    <t>SC018Q01TA01</t>
+  </si>
+  <si>
+    <t>Teachers in TOTAL: Full-time</t>
+  </si>
+  <si>
+    <t>SC018Q01TA02</t>
+  </si>
+  <si>
+    <t>Teachers in TOTAL: Part-time</t>
+  </si>
+  <si>
+    <t>SC018Q02TA01</t>
+  </si>
+  <si>
+    <t>Teachers &lt;fully certified&gt; by &lt;the appropriate authority&gt;: Full-time</t>
+  </si>
+  <si>
+    <t>SC018Q02TA02</t>
+  </si>
+  <si>
+    <t>Teachers &lt;fully certified&gt; by &lt;the appropriate authority&gt;: Part-time</t>
+  </si>
+  <si>
+    <t>SC018Q05NA01</t>
+  </si>
+  <si>
+    <t>Teachers with an &lt;ISCED Level 5A Bachelor degree&gt; qualification: Full-time</t>
+  </si>
+  <si>
+    <t>SC018Q05NA02</t>
+  </si>
+  <si>
+    <t>Teachers with an &lt;ISCED Level 5A Bachelor degree&gt; qualification: Part-time</t>
+  </si>
+  <si>
+    <t>SC018Q06NA01</t>
+  </si>
+  <si>
+    <t>Teachers with an &lt;ISCED Level 5A Master's degree&gt; qualification: Full-time</t>
+  </si>
+  <si>
+    <t>SC018Q06NA02</t>
+  </si>
+  <si>
+    <t>Teachers with an &lt;ISCED Level 5A Master's degree&gt; qualification: Part-time</t>
+  </si>
+  <si>
+    <t>SC018Q07NA01</t>
+  </si>
+  <si>
+    <t>Teachers with an &lt;ISCED Level 6&gt; qualification: Full-time</t>
+  </si>
+  <si>
+    <t>SC018Q07NA02</t>
+  </si>
+  <si>
+    <t>Teachers with an &lt;ISCED Level 6&gt; qualification: Part-time</t>
+  </si>
+  <si>
+    <t>SC025Q01NA</t>
+  </si>
+  <si>
+    <t>During the last three months, what percentage of teaching staff [...] attended a programme of professional development?</t>
+  </si>
+  <si>
+    <t>SC159Q01HA</t>
+  </si>
+  <si>
+    <t>Does your school host visiting teachers from other countries?</t>
+  </si>
+  <si>
+    <t>SC003Q01TA</t>
+  </si>
+  <si>
+    <t>What is the average size of &lt;test language&gt; classes in &lt;national modal grade for 15-year-olds&gt; in your school?</t>
+  </si>
+  <si>
+    <t>SC053Q01TA</t>
+  </si>
+  <si>
+    <t>&lt;This academic year&gt;, activities offered to &lt;national modal grade for 15-year-olds&gt;: Band, orchestra or choir</t>
+  </si>
+  <si>
+    <t>SC053Q02TA</t>
+  </si>
+  <si>
+    <t>&lt;This academic year&gt;, activities offered to &lt;national modal grade for 15-year-olds&gt;: School play or school musical</t>
+  </si>
+  <si>
+    <t>SC053Q03TA</t>
+  </si>
+  <si>
+    <t>&lt;This academic year&gt;, activities offered to &lt;national modal grade for 15-year-olds&gt;: School yearbook, newspaper [...]</t>
+  </si>
+  <si>
+    <t>SC053Q04TA</t>
+  </si>
+  <si>
+    <t>&lt;This academic year&gt;, activities offered to &lt;national modal grade for 15-year-olds&gt;: Volunteering [...]</t>
+  </si>
+  <si>
+    <t>SC053Q12IA</t>
+  </si>
+  <si>
+    <t>&lt;This academic year&gt;, activities offered to &lt;national modal grade for 15-year-olds&gt;: Book club</t>
+  </si>
+  <si>
+    <t>SC053Q13IA</t>
+  </si>
+  <si>
+    <t>&lt;This academic year&gt;, activities offered to &lt;national modal grade for 15-year-olds&gt;: Debating club or debating [...]</t>
+  </si>
+  <si>
+    <t>SC053Q09TA</t>
+  </si>
+  <si>
+    <t>&lt;This academic year&gt;, activities offered to &lt;national modal grade for 15-year-olds&gt;: Art club or art activities</t>
+  </si>
+  <si>
+    <t>SC053Q10TA</t>
+  </si>
+  <si>
+    <t>&lt;This academic year&gt;, activities offered to &lt;national modal grade for 15-year-olds&gt;: Sporting team or sporting [...]</t>
+  </si>
+  <si>
+    <t>SC053Q14IA</t>
+  </si>
+  <si>
+    <t>&lt;This academic year&gt;, activities offered to &lt;national modal grade for 15-year-olds&gt;: Lectures and/or seminars [...]</t>
+  </si>
+  <si>
+    <t>SC053Q15IA</t>
+  </si>
+  <si>
+    <t>&lt;This academic year&gt;, activities offered to &lt;national modal grade for 15-year-olds&gt;: Collaboration with local libraries</t>
+  </si>
+  <si>
+    <t>SC053Q16IA</t>
+  </si>
+  <si>
+    <t>&lt;This academic year&gt;, activities offered to &lt;national modal grade for 15-year-olds&gt;: Collaboration with local newspapers</t>
+  </si>
+  <si>
+    <t>SC053D11TA</t>
+  </si>
+  <si>
+    <t>&lt;This academic year&gt;,follow. activities/school offers&lt;national modal grade for 15-year-olds&gt;? &lt;country specific item&gt;</t>
+  </si>
+  <si>
+    <t>SC150Q01IA</t>
+  </si>
+  <si>
+    <t>School's equity-oriented policies: These students attend regular classes and receive additional periods of [...]</t>
+  </si>
+  <si>
+    <t>SC150Q02IA</t>
+  </si>
+  <si>
+    <t>School's equity-oriented policies: Before transferring to regular classes, [...] preparatory programme aimed at [...]</t>
+  </si>
+  <si>
+    <t>SC150Q03IA</t>
+  </si>
+  <si>
+    <t>School's equity-oriented policies: Before transferring to regular classes, [...] instruction in school subjects [...]</t>
+  </si>
+  <si>
+    <t>SC150Q04IA</t>
+  </si>
+  <si>
+    <t>School's equity-oriented policies: These students receive [...] amounts of instruction in their &lt;heritage language&gt;</t>
+  </si>
+  <si>
+    <t>SC150Q05IA</t>
+  </si>
+  <si>
+    <t>Schools equity-oriented policies: Class size is reduced to cater to the special needs of these students.</t>
+  </si>
+  <si>
+    <t>SC164Q01HA</t>
+  </si>
+  <si>
+    <t>In the last full academic year, what proportion of students in [...] final grade left school without a &lt;certificate&gt;?</t>
+  </si>
+  <si>
+    <t>SC064Q01TA</t>
+  </si>
+  <si>
+    <t>Proportion of parents: Discussed their child's progress with a teacher on their own initiative</t>
+  </si>
+  <si>
+    <t>SC064Q02TA</t>
+  </si>
+  <si>
+    <t>Proportion of parents: Discussed their child's progress on the initiative of one of their child's teachers</t>
+  </si>
+  <si>
+    <t>SC064Q03TA</t>
+  </si>
+  <si>
+    <t>Proportion of parents: Participated in local school government (e.g. parent council or school management committee)</t>
+  </si>
+  <si>
+    <t>SC064Q04NA</t>
+  </si>
+  <si>
+    <t>Proportion of parents: Volunteered in physical or extra-curricular activities [...]</t>
+  </si>
+  <si>
+    <t>SC152Q01HA</t>
+  </si>
+  <si>
+    <t>Does your school offer additional &lt;test language&gt; lessons [...] during the usual school hours?</t>
+  </si>
+  <si>
+    <t>SC160Q01WA</t>
+  </si>
+  <si>
+    <t>What is the purpose of these additional &lt;test language&gt; lessons?</t>
+  </si>
+  <si>
+    <t>SC052Q01NA</t>
+  </si>
+  <si>
+    <t>For 15-year old students, school provides study help: Room(s) where the students can do their homework</t>
+  </si>
+  <si>
+    <t>SC052Q02NA</t>
+  </si>
+  <si>
+    <t>For 15-year old students, school provides study help: Staff help with homework</t>
+  </si>
+  <si>
+    <t>SC052Q03HA</t>
+  </si>
+  <si>
+    <t>For 15-year old students, school provides study help: Peer-to-peer tutoring</t>
+  </si>
+  <si>
+    <t>PRIVATESCH</t>
+  </si>
+  <si>
+    <t>School type derived from sampling information; values = public, private, missing</t>
+  </si>
+  <si>
+    <t>SCHLTYPE</t>
+  </si>
+  <si>
+    <t>School Ownership</t>
+  </si>
+  <si>
+    <t>STRATIO</t>
+  </si>
+  <si>
+    <t>Student-Teacher ratio</t>
+  </si>
+  <si>
+    <t>SCHSIZE</t>
+  </si>
+  <si>
+    <t>School Size (Sum)</t>
+  </si>
+  <si>
+    <t>RATCMP1</t>
+  </si>
+  <si>
+    <t>Number of available computers per student at modal grade</t>
+  </si>
+  <si>
+    <t>RATCMP2</t>
+  </si>
+  <si>
+    <t>Proportion of available computers that are connected to the Internet</t>
+  </si>
+  <si>
+    <t>TOTAT</t>
+  </si>
+  <si>
+    <t>Total number of all teachers at school</t>
+  </si>
+  <si>
+    <t>PROATCE</t>
+  </si>
+  <si>
+    <t>Index proportion of all teachers fully certified</t>
+  </si>
+  <si>
+    <t>PROAT5AB</t>
+  </si>
+  <si>
+    <t>Index proportion of all teachers ISCED LEVEL 5A Bachelor</t>
+  </si>
+  <si>
+    <t>PROAT5AM</t>
+  </si>
+  <si>
+    <t>Index proportion of all teachers ISCED LEVEL 5A Master</t>
+  </si>
+  <si>
+    <t>PROAT6</t>
+  </si>
+  <si>
+    <t>Index proportion of all teachers ISCED LEVEL 6</t>
+  </si>
+  <si>
+    <t>CLSIZE</t>
+  </si>
+  <si>
+    <t>Class Size</t>
+  </si>
+  <si>
+    <t>CREACTIV</t>
+  </si>
+  <si>
+    <t>Creative extra-curricular activities (Sum)</t>
+  </si>
+  <si>
+    <t>EDUSHORT</t>
+  </si>
+  <si>
+    <t>Shortage of educational material (WLE)</t>
+  </si>
+  <si>
+    <t>STAFFSHORT</t>
+  </si>
+  <si>
+    <t>Shortage of educational staff (WLE)</t>
+  </si>
+  <si>
+    <t>STUBEHA</t>
+  </si>
+  <si>
+    <t>Student behaviour hindering learning (WLE)</t>
+  </si>
+  <si>
+    <t>TEACHBEHA</t>
+  </si>
+  <si>
+    <t>Teacher behaviour hindering learning (WLE)</t>
+  </si>
+  <si>
+    <t>SCMCEG</t>
+  </si>
+  <si>
+    <t>School principal's view on teachers' multicultural and egalitarian beliefs (WLE)</t>
+  </si>
+  <si>
+    <t>W_SCHGRNRABWT</t>
+  </si>
+  <si>
+    <t>GRADE NONRESPONSE ADJUSTED SCHOOL BASE WEIGHT</t>
+  </si>
+  <si>
+    <t>W_FSTUWT_SCH_SUM</t>
+  </si>
+  <si>
+    <t>Sum of W_FSTUWT</t>
+  </si>
+  <si>
+    <t>NA (for some countries)</t>
   </si>
 </sst>
 </file>
@@ -7109,7 +8217,7 @@
   <dimension ref="A1:E1119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C477" sqref="C477"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -7406,6 +8514,9 @@
       <c r="B22" t="s">
         <v>1659</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7418,6 +8529,9 @@
       <c r="B23" t="s">
         <v>1657</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7430,6 +8544,9 @@
       <c r="B24" t="s">
         <v>1655</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13731,7 +14848,7 @@
         <v>1593</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>2223</v>
+        <v>2595</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>2221</v>
@@ -13749,7 +14866,7 @@
         <v>1595</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>2223</v>
+        <v>2595</v>
       </c>
       <c r="D507" s="1" t="s">
         <v>2221</v>
@@ -21206,4 +22323,1611 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3918117-006D-4ADF-8B53-EA27F0E01106}">
+  <dimension ref="A1:E197"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="101.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Info and data/Features and meanings.xlsx
+++ b/Info and data/Features and meanings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\Applied-Statistics-Project\Info and data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APPLIED\GITHUB\Applied-Statistics-Project\Info and data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC65048D-34E5-4973-ACA6-925454F08E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86259183-3F50-46FE-85A1-0A1285245350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{3DA52822-CFDA-408E-B1C3-39FC0A4F79A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3DA52822-CFDA-408E-B1C3-39FC0A4F79A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Student features and meanings" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="2596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="2596">
   <si>
     <t>CNTRYID</t>
   </si>
@@ -8216,16 +8216,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F913139-5BD2-4A68-816A-F8D58E27C68E}">
   <dimension ref="A1:E1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A625" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C950" sqref="C950"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.31640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8841,6 +8841,9 @@
       <c r="B46" t="s">
         <v>865</v>
       </c>
+      <c r="C46" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12894,6 +12897,9 @@
       <c r="B378" t="s">
         <v>1365</v>
       </c>
+      <c r="C378" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="D378" s="1" t="s">
         <v>2221</v>
       </c>
@@ -12939,6 +12945,9 @@
       <c r="B381" t="s">
         <v>1371</v>
       </c>
+      <c r="C381" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="D381" s="1" t="s">
         <v>2221</v>
       </c>
@@ -12969,6 +12978,9 @@
       <c r="B383" t="s">
         <v>1375</v>
       </c>
+      <c r="C383" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="D383" s="1" t="s">
         <v>2221</v>
       </c>
@@ -12984,6 +12996,9 @@
       <c r="B384" t="s">
         <v>1377</v>
       </c>
+      <c r="C384" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="D384" s="1" t="s">
         <v>2221</v>
       </c>
@@ -12999,6 +13014,9 @@
       <c r="B385" t="s">
         <v>1409</v>
       </c>
+      <c r="C385" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="D385" s="1" t="s">
         <v>2221</v>
       </c>
@@ -13014,6 +13032,9 @@
       <c r="B386" t="s">
         <v>1411</v>
       </c>
+      <c r="C386" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="D386" s="1" t="s">
         <v>2221</v>
       </c>
@@ -13164,6 +13185,9 @@
       <c r="B396" t="s">
         <v>1499</v>
       </c>
+      <c r="C396" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="D396" s="1" t="s">
         <v>2221</v>
       </c>
@@ -13434,6 +13458,9 @@
       <c r="B414" t="s">
         <v>1479</v>
       </c>
+      <c r="C414" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="D414" s="1" t="s">
         <v>2221</v>
       </c>
@@ -13872,6 +13899,9 @@
       <c r="B441" t="s">
         <v>1637</v>
       </c>
+      <c r="C441" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="D441" s="1" t="s">
         <v>2221</v>
       </c>
@@ -15282,6 +15312,9 @@
       <c r="B536" t="s">
         <v>2053</v>
       </c>
+      <c r="C536" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="E536" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -15390,6 +15423,9 @@
       <c r="B545" t="s">
         <v>2035</v>
       </c>
+      <c r="C545" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="E545" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -18764,6 +18800,9 @@
       </c>
       <c r="B824" t="s">
         <v>387</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>2223</v>
       </c>
       <c r="E824" t="str">
         <f t="shared" si="12"/>
@@ -22333,13 +22372,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="101.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="101.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/Info and data/Features and meanings.xlsx
+++ b/Info and data/Features and meanings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APPLIED\GITHUB\Applied-Statistics-Project\Info and data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\Applied-Statistics-Project\Info and data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13275CF6-A05A-4494-B69C-E695DE0DDAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0B0336-F3B0-4A93-9CDE-CCC0D4A2F4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3DA52822-CFDA-408E-B1C3-39FC0A4F79A9}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{3DA52822-CFDA-408E-B1C3-39FC0A4F79A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Student features and meanings" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="2603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="2603">
   <si>
     <t>CNTRYID</t>
   </si>
@@ -8248,20 +8248,20 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A563" sqref="A563"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.2265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.31640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.2265625" customWidth="1"/>
+    <col min="8" max="8" width="22.31640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -25794,19 +25794,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3918117-006D-4ADF-8B53-EA27F0E01106}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="101.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="101.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.76953125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -25823,7 +25822,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -25835,7 +25834,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -25847,7 +25846,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -25859,7 +25858,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -25871,7 +25870,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -25883,7 +25882,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2227</v>
       </c>
@@ -25895,7 +25894,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -25907,7 +25906,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -25919,7 +25918,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -25931,7 +25930,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -25943,7 +25942,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>2228</v>
       </c>
@@ -25955,7 +25954,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>2230</v>
       </c>
@@ -25967,7 +25966,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>2232</v>
       </c>
@@ -25979,7 +25978,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>2234</v>
       </c>
@@ -25991,7 +25990,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>2236</v>
       </c>
@@ -26003,7 +26002,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>2238</v>
       </c>
@@ -26015,7 +26014,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>2240</v>
       </c>
@@ -26027,7 +26026,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>2242</v>
       </c>
@@ -26039,7 +26038,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>2244</v>
       </c>
@@ -26051,7 +26050,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>2246</v>
       </c>
@@ -26063,7 +26062,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>2248</v>
       </c>
@@ -26075,7 +26074,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>2250</v>
       </c>
@@ -26087,7 +26086,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>2252</v>
       </c>
@@ -26099,7 +26098,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>2254</v>
       </c>
@@ -26111,7 +26110,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>2256</v>
       </c>
@@ -26123,7 +26122,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>2258</v>
       </c>
@@ -26135,7 +26134,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>2260</v>
       </c>
@@ -26147,7 +26146,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>2262</v>
       </c>
@@ -26159,7 +26158,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>2264</v>
       </c>
@@ -26171,7 +26170,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>2266</v>
       </c>
@@ -26183,7 +26182,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>2268</v>
       </c>
@@ -26195,7 +26194,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>2270</v>
       </c>
@@ -26207,7 +26206,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>2272</v>
       </c>
@@ -26219,7 +26218,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>2274</v>
       </c>
@@ -26231,7 +26230,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>2276</v>
       </c>
@@ -26243,7 +26242,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>2278</v>
       </c>
@@ -26255,7 +26254,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>2280</v>
       </c>
@@ -26267,7 +26266,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>2282</v>
       </c>
@@ -26279,7 +26278,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>2284</v>
       </c>
@@ -26291,7 +26290,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>2286</v>
       </c>
@@ -26303,7 +26302,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>2288</v>
       </c>
@@ -26315,7 +26314,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>2290</v>
       </c>
@@ -26327,7 +26326,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>2292</v>
       </c>
@@ -26339,7 +26338,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>2294</v>
       </c>
@@ -26351,7 +26350,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>2296</v>
       </c>
@@ -26363,7 +26362,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>2298</v>
       </c>
@@ -26375,7 +26374,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>2300</v>
       </c>
@@ -26387,7 +26386,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>2302</v>
       </c>
@@ -26399,7 +26398,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>2304</v>
       </c>
@@ -26411,7 +26410,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>2306</v>
       </c>
@@ -26423,7 +26422,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>2308</v>
       </c>
@@ -26435,7 +26434,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>2309</v>
       </c>
@@ -26447,7 +26446,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>2311</v>
       </c>
@@ -26459,7 +26458,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>2313</v>
       </c>
@@ -26471,7 +26470,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>2315</v>
       </c>
@@ -26483,7 +26482,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>2317</v>
       </c>
@@ -26495,7 +26494,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>2319</v>
       </c>
@@ -26507,7 +26506,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>2321</v>
       </c>
@@ -26519,7 +26518,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>2323</v>
       </c>
@@ -26531,7 +26530,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>2325</v>
       </c>
@@ -26543,7 +26542,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>2327</v>
       </c>
@@ -26555,7 +26554,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>2329</v>
       </c>
@@ -26567,7 +26566,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>2331</v>
       </c>
@@ -26579,7 +26578,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>2333</v>
       </c>
@@ -26591,7 +26590,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>2335</v>
       </c>
@@ -26603,7 +26602,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>2337</v>
       </c>
@@ -26615,7 +26614,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>2339</v>
       </c>
@@ -26627,7 +26626,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>2341</v>
       </c>
@@ -26639,7 +26638,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>2343</v>
       </c>
@@ -26651,7 +26650,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>2345</v>
       </c>
@@ -26663,7 +26662,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>2347</v>
       </c>
@@ -26675,7 +26674,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>2349</v>
       </c>
@@ -26687,7 +26686,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>2351</v>
       </c>
@@ -26699,7 +26698,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>2353</v>
       </c>
@@ -26711,7 +26710,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>2355</v>
       </c>
@@ -26723,7 +26722,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>2357</v>
       </c>
@@ -26735,7 +26734,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>2359</v>
       </c>
@@ -26747,7 +26746,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>2361</v>
       </c>
@@ -26759,7 +26758,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>2363</v>
       </c>
@@ -26771,7 +26770,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>2365</v>
       </c>
@@ -26783,7 +26782,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>2367</v>
       </c>
@@ -26795,7 +26794,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>2369</v>
       </c>
@@ -26807,7 +26806,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>2371</v>
       </c>
@@ -26819,7 +26818,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>2373</v>
       </c>
@@ -26906,7 +26905,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>2385</v>
       </c>
@@ -27038,7 +27037,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>2403</v>
       </c>
@@ -27050,7 +27049,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>2405</v>
       </c>
@@ -27062,7 +27061,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>2407</v>
       </c>
@@ -27074,7 +27073,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>2409</v>
       </c>
@@ -27086,7 +27085,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>2411</v>
       </c>
@@ -27098,7 +27097,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>2413</v>
       </c>
@@ -27110,7 +27109,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>2415</v>
       </c>
@@ -27122,7 +27121,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>2417</v>
       </c>
@@ -27134,7 +27133,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>2419</v>
       </c>
@@ -27146,7 +27145,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>2421</v>
       </c>
@@ -27158,7 +27157,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>2423</v>
       </c>
@@ -27170,7 +27169,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>2425</v>
       </c>
@@ -27182,7 +27181,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>2427</v>
       </c>
@@ -27194,7 +27193,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>2429</v>
       </c>
@@ -27206,7 +27205,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>2431</v>
       </c>
@@ -27218,7 +27217,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>2433</v>
       </c>
@@ -27230,7 +27229,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>2435</v>
       </c>
@@ -27242,7 +27241,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>2437</v>
       </c>
@@ -27254,7 +27253,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>2439</v>
       </c>
@@ -27266,7 +27265,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>2441</v>
       </c>
@@ -27278,7 +27277,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>2443</v>
       </c>
@@ -27290,7 +27289,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>2445</v>
       </c>
@@ -27302,7 +27301,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>2447</v>
       </c>
@@ -27314,7 +27313,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>2449</v>
       </c>
@@ -27326,7 +27325,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>2451</v>
       </c>
@@ -27338,7 +27337,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>2453</v>
       </c>
@@ -27350,7 +27349,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>2455</v>
       </c>
@@ -27362,7 +27361,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>2457</v>
       </c>
@@ -27374,7 +27373,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>2459</v>
       </c>
@@ -27386,7 +27385,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>2461</v>
       </c>
@@ -27398,7 +27397,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>2463</v>
       </c>
@@ -27410,7 +27409,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>2465</v>
       </c>
@@ -27422,7 +27421,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>2467</v>
       </c>
@@ -27434,7 +27433,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>2469</v>
       </c>
@@ -27446,7 +27445,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>2471</v>
       </c>
@@ -27458,7 +27457,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>2473</v>
       </c>
@@ -27500,7 +27499,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>2479</v>
       </c>
@@ -27512,7 +27511,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>2481</v>
       </c>
@@ -27524,7 +27523,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>2483</v>
       </c>
@@ -27536,7 +27535,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>2485</v>
       </c>
@@ -27548,7 +27547,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>2487</v>
       </c>
@@ -27560,7 +27559,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>2489</v>
       </c>
@@ -27572,7 +27571,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>2491</v>
       </c>
@@ -27584,7 +27583,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>2493</v>
       </c>
@@ -27596,7 +27595,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>2495</v>
       </c>
@@ -27608,7 +27607,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>2497</v>
       </c>
@@ -27620,7 +27619,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>2499</v>
       </c>
@@ -27632,7 +27631,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>2501</v>
       </c>
@@ -27644,7 +27643,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>2503</v>
       </c>
@@ -27656,7 +27655,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>2505</v>
       </c>
@@ -27668,7 +27667,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>2507</v>
       </c>
@@ -27680,7 +27679,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>2509</v>
       </c>
@@ -27692,7 +27691,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>2511</v>
       </c>
@@ -27704,7 +27703,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>2513</v>
       </c>
@@ -27716,7 +27715,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>2515</v>
       </c>
@@ -27728,7 +27727,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>2517</v>
       </c>
@@ -27740,7 +27739,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>2519</v>
       </c>
@@ -27752,7 +27751,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>2521</v>
       </c>
@@ -27764,7 +27763,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>2523</v>
       </c>
@@ -27776,7 +27775,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>2525</v>
       </c>
@@ -27788,7 +27787,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>2527</v>
       </c>
@@ -27800,7 +27799,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>2529</v>
       </c>
@@ -27812,7 +27811,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>2531</v>
       </c>
@@ -27824,7 +27823,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>2533</v>
       </c>
@@ -27836,7 +27835,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>2535</v>
       </c>
@@ -27848,7 +27847,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>2537</v>
       </c>
@@ -27860,7 +27859,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>2539</v>
       </c>
@@ -27872,7 +27871,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>2541</v>
       </c>
@@ -27884,7 +27883,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>2543</v>
       </c>
@@ -27896,7 +27895,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>2545</v>
       </c>
@@ -27908,7 +27907,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>2547</v>
       </c>
@@ -27920,7 +27919,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>2549</v>
       </c>
@@ -27932,7 +27931,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>2551</v>
       </c>
@@ -27944,7 +27943,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>2553</v>
       </c>
@@ -27956,19 +27955,22 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>2555</v>
       </c>
       <c r="B176" t="s">
         <v>2556</v>
       </c>
+      <c r="C176" s="1" t="s">
+        <v>2223</v>
+      </c>
       <c r="D176" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>2557</v>
       </c>
@@ -28007,7 +28009,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>2563</v>
       </c>
@@ -28019,7 +28021,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>2565</v>
       </c>
@@ -28031,7 +28033,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>2567</v>
       </c>
@@ -28043,7 +28045,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>2569</v>
       </c>
@@ -28055,7 +28057,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>2571</v>
       </c>
@@ -28067,7 +28069,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>2573</v>
       </c>
@@ -28079,7 +28081,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>2575</v>
       </c>
@@ -28106,7 +28108,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>2579</v>
       </c>
@@ -28193,7 +28195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>2591</v>
       </c>
@@ -28205,7 +28207,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>2593</v>
       </c>
@@ -28217,7 +28219,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>2214</v>
       </c>
@@ -28229,7 +28231,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>2216</v>
       </c>
@@ -28242,13 +28244,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D197" xr:uid="{D3918117-006D-4ADF-8B53-EA27F0E01106}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D197" xr:uid="{D3918117-006D-4ADF-8B53-EA27F0E01106}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Info and data/Features and meanings.xlsx
+++ b/Info and data/Features and meanings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\Applied-Statistics-Project\Info and data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0B0336-F3B0-4A93-9CDE-CCC0D4A2F4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6309DC41-12FC-4C6F-973B-3B9ABBF25289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{3DA52822-CFDA-408E-B1C3-39FC0A4F79A9}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{3DA52822-CFDA-408E-B1C3-39FC0A4F79A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Student features and meanings" sheetId="1" r:id="rId1"/>
@@ -8245,11 +8245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F913139-5BD2-4A68-816A-F8D58E27C68E}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H1119"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A563" sqref="A563"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -8290,7 +8289,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1758</v>
       </c>
@@ -8305,7 +8304,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8320,7 +8319,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1650</v>
       </c>
@@ -8335,7 +8334,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1794</v>
       </c>
@@ -8353,7 +8352,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1858</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1774</v>
       </c>
@@ -8386,7 +8385,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>1824</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>1804</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>1686</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>1684</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>1864</v>
       </c>
@@ -8500,7 +8499,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -8515,7 +8514,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>1706</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>1720</v>
       </c>
@@ -8548,7 +8547,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -8563,7 +8562,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -8596,7 +8595,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -8611,7 +8610,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>1658</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>1656</v>
       </c>
@@ -8647,7 +8646,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>1654</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>1800</v>
       </c>
@@ -8698,7 +8697,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>1822</v>
       </c>
@@ -8731,7 +8730,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>1846</v>
       </c>
@@ -8746,7 +8745,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -8761,7 +8760,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>1750</v>
       </c>
@@ -8776,7 +8775,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>1746</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>1808</v>
       </c>
@@ -8806,7 +8805,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>1702</v>
       </c>
@@ -8821,7 +8820,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>996</v>
       </c>
@@ -8839,7 +8838,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>998</v>
       </c>
@@ -8857,7 +8856,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>1000</v>
       </c>
@@ -8875,7 +8874,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>1002</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>1004</v>
       </c>
@@ -8911,7 +8910,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>1006</v>
       </c>
@@ -8929,7 +8928,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>1010</v>
       </c>
@@ -8947,7 +8946,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>1008</v>
       </c>
@@ -8965,7 +8964,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>858</v>
       </c>
@@ -8980,7 +8979,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>860</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>862</v>
       </c>
@@ -9010,7 +9009,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>864</v>
       </c>
@@ -9028,7 +9027,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>866</v>
       </c>
@@ -9043,7 +9042,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>868</v>
       </c>
@@ -9058,7 +9057,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>870</v>
       </c>
@@ -9073,7 +9072,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>872</v>
       </c>
@@ -9088,7 +9087,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>874</v>
       </c>
@@ -9103,7 +9102,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>876</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>878</v>
       </c>
@@ -9133,7 +9132,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>880</v>
       </c>
@@ -9148,7 +9147,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>882</v>
       </c>
@@ -9163,7 +9162,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>884</v>
       </c>
@@ -9178,7 +9177,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>886</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>888</v>
       </c>
@@ -9208,7 +9207,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>890</v>
       </c>
@@ -9223,7 +9222,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>892</v>
       </c>
@@ -9238,7 +9237,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>894</v>
       </c>
@@ -9253,7 +9252,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>896</v>
       </c>
@@ -9268,7 +9267,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>898</v>
       </c>
@@ -9283,7 +9282,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>900</v>
       </c>
@@ -9298,7 +9297,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>902</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>904</v>
       </c>
@@ -9328,7 +9327,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>906</v>
       </c>
@@ -9343,7 +9342,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>908</v>
       </c>
@@ -9358,7 +9357,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>910</v>
       </c>
@@ -9373,7 +9372,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>912</v>
       </c>
@@ -9388,7 +9387,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>914</v>
       </c>
@@ -9403,7 +9402,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>916</v>
       </c>
@@ -9418,7 +9417,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>918</v>
       </c>
@@ -9433,7 +9432,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>920</v>
       </c>
@@ -9448,7 +9447,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>922</v>
       </c>
@@ -9463,7 +9462,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>924</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>926</v>
       </c>
@@ -9493,7 +9492,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>928</v>
       </c>
@@ -9508,7 +9507,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>930</v>
       </c>
@@ -9523,7 +9522,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>932</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>934</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>936</v>
       </c>
@@ -9568,7 +9567,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>978</v>
       </c>
@@ -9586,7 +9585,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>980</v>
       </c>
@@ -9604,7 +9603,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>982</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>984</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>986</v>
       </c>
@@ -9655,7 +9654,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>988</v>
       </c>
@@ -9673,7 +9672,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>990</v>
       </c>
@@ -9691,7 +9690,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>992</v>
       </c>
@@ -9706,7 +9705,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>994</v>
       </c>
@@ -9724,7 +9723,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>1012</v>
       </c>
@@ -9742,7 +9741,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>1014</v>
       </c>
@@ -9760,7 +9759,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>1016</v>
       </c>
@@ -9778,7 +9777,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>1018</v>
       </c>
@@ -9793,7 +9792,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>1020</v>
       </c>
@@ -9808,7 +9807,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>940</v>
       </c>
@@ -9823,7 +9822,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>942</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>944</v>
       </c>
@@ -9853,7 +9852,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>946</v>
       </c>
@@ -9868,7 +9867,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>938</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>962</v>
       </c>
@@ -9898,7 +9897,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>964</v>
       </c>
@@ -9913,7 +9912,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>966</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>968</v>
       </c>
@@ -9943,7 +9942,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>970</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>972</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>974</v>
       </c>
@@ -9988,7 +9987,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>976</v>
       </c>
@@ -10003,7 +10002,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>948</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>950</v>
       </c>
@@ -10033,7 +10032,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>952</v>
       </c>
@@ -10048,7 +10047,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>954</v>
       </c>
@@ -10063,7 +10062,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>956</v>
       </c>
@@ -10078,7 +10077,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>958</v>
       </c>
@@ -10093,7 +10092,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>960</v>
       </c>
@@ -10108,7 +10107,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>1638</v>
       </c>
@@ -10123,7 +10122,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>1640</v>
       </c>
@@ -10138,7 +10137,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>1848</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>1814</v>
       </c>
@@ -10204,7 +10203,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>1782</v>
       </c>
@@ -10219,7 +10218,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>1716</v>
       </c>
@@ -10234,7 +10233,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>1670</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>1678</v>
       </c>
@@ -10264,7 +10263,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>1188</v>
       </c>
@@ -10279,7 +10278,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>1190</v>
       </c>
@@ -10294,7 +10293,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>1192</v>
       </c>
@@ -10309,7 +10308,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>1194</v>
       </c>
@@ -10324,7 +10323,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>1196</v>
       </c>
@@ -10339,7 +10338,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>1254</v>
       </c>
@@ -10354,7 +10353,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>1256</v>
       </c>
@@ -10369,7 +10368,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>1258</v>
       </c>
@@ -10384,7 +10383,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>1260</v>
       </c>
@@ -10399,7 +10398,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>1262</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>1264</v>
       </c>
@@ -10429,7 +10428,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>1276</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>1278</v>
       </c>
@@ -10459,7 +10458,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>1280</v>
       </c>
@@ -10474,7 +10473,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>1282</v>
       </c>
@@ -10489,7 +10488,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>1284</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>1286</v>
       </c>
@@ -10519,7 +10518,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>1288</v>
       </c>
@@ -10534,7 +10533,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>1290</v>
       </c>
@@ -10549,7 +10548,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>1292</v>
       </c>
@@ -10564,7 +10563,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>1294</v>
       </c>
@@ -10579,7 +10578,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>1296</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>1298</v>
       </c>
@@ -10609,7 +10608,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>1300</v>
       </c>
@@ -10624,7 +10623,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>1302</v>
       </c>
@@ -10639,7 +10638,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>1304</v>
       </c>
@@ -10654,7 +10653,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>1306</v>
       </c>
@@ -10669,7 +10668,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>1308</v>
       </c>
@@ -10684,7 +10683,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>1310</v>
       </c>
@@ -10699,7 +10698,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>1312</v>
       </c>
@@ -10714,7 +10713,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>1314</v>
       </c>
@@ -10729,7 +10728,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>1316</v>
       </c>
@@ -10744,7 +10743,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>1318</v>
       </c>
@@ -10759,7 +10758,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>1320</v>
       </c>
@@ -10774,7 +10773,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>1322</v>
       </c>
@@ -10789,7 +10788,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>1324</v>
       </c>
@@ -10804,7 +10803,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>1326</v>
       </c>
@@ -10819,7 +10818,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>1328</v>
       </c>
@@ -10834,7 +10833,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>1330</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>1332</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>1198</v>
       </c>
@@ -10879,7 +10878,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>1200</v>
       </c>
@@ -10894,7 +10893,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>1202</v>
       </c>
@@ -10909,7 +10908,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>1204</v>
       </c>
@@ -10924,7 +10923,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>1206</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>1208</v>
       </c>
@@ -10954,7 +10953,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>1210</v>
       </c>
@@ -10969,7 +10968,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>1212</v>
       </c>
@@ -10984,7 +10983,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>1214</v>
       </c>
@@ -10999,7 +10998,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>1216</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>1218</v>
       </c>
@@ -11029,7 +11028,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>1220</v>
       </c>
@@ -11044,7 +11043,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>1222</v>
       </c>
@@ -11059,7 +11058,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>1224</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>1226</v>
       </c>
@@ -11089,7 +11088,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>1228</v>
       </c>
@@ -11104,7 +11103,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>1230</v>
       </c>
@@ -11119,7 +11118,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>1232</v>
       </c>
@@ -11134,7 +11133,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>1234</v>
       </c>
@@ -11149,7 +11148,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>1236</v>
       </c>
@@ -11164,7 +11163,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>1238</v>
       </c>
@@ -11179,7 +11178,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>1240</v>
       </c>
@@ -11194,7 +11193,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1">
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>1242</v>
       </c>
@@ -11209,7 +11208,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>1244</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1">
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>1246</v>
       </c>
@@ -11239,7 +11238,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1">
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>1248</v>
       </c>
@@ -11254,7 +11253,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1">
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>1250</v>
       </c>
@@ -11269,7 +11268,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1">
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>1252</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1">
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>1266</v>
       </c>
@@ -11299,7 +11298,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1">
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>1268</v>
       </c>
@@ -11314,7 +11313,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1">
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>1270</v>
       </c>
@@ -11329,7 +11328,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1">
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>1272</v>
       </c>
@@ -11344,7 +11343,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1">
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>1274</v>
       </c>
@@ -11359,7 +11358,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1">
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>1334</v>
       </c>
@@ -11374,7 +11373,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1">
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>1336</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1">
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>1338</v>
       </c>
@@ -11404,7 +11403,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1">
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>1340</v>
       </c>
@@ -11419,7 +11418,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1">
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>1342</v>
       </c>
@@ -11434,7 +11433,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1">
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>1344</v>
       </c>
@@ -11449,7 +11448,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1">
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>1346</v>
       </c>
@@ -11464,7 +11463,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1">
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>1348</v>
       </c>
@@ -11479,7 +11478,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1">
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>1350</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1">
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>1352</v>
       </c>
@@ -11509,7 +11508,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1">
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
         <v>1354</v>
       </c>
@@ -11524,7 +11523,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1">
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>1356</v>
       </c>
@@ -11539,7 +11538,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1">
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
         <v>1838</v>
       </c>
@@ -11554,7 +11553,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1">
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>1840</v>
       </c>
@@ -11569,7 +11568,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1">
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>1844</v>
       </c>
@@ -11584,7 +11583,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1">
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>1842</v>
       </c>
@@ -11599,7 +11598,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1">
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>1792</v>
       </c>
@@ -11614,7 +11613,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1">
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>1862</v>
       </c>
@@ -11629,7 +11628,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1">
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>1790</v>
       </c>
@@ -11662,7 +11661,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1">
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
         <v>1806</v>
       </c>
@@ -11677,7 +11676,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1">
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
         <v>1648</v>
       </c>
@@ -11728,7 +11727,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1">
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
         <v>1680</v>
       </c>
@@ -11743,7 +11742,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1">
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
         <v>1688</v>
       </c>
@@ -11776,7 +11775,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1">
+    <row r="227" spans="1:6">
       <c r="A227" t="s">
         <v>1816</v>
       </c>
@@ -11791,7 +11790,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1">
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
         <v>640</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1">
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
         <v>642</v>
       </c>
@@ -11821,7 +11820,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1">
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>644</v>
       </c>
@@ -11836,7 +11835,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1">
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>646</v>
       </c>
@@ -11851,7 +11850,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1">
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>648</v>
       </c>
@@ -11866,7 +11865,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1">
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
         <v>650</v>
       </c>
@@ -11881,7 +11880,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1">
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>652</v>
       </c>
@@ -11896,7 +11895,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1">
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>654</v>
       </c>
@@ -11911,7 +11910,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1">
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
         <v>656</v>
       </c>
@@ -11926,7 +11925,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1">
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>658</v>
       </c>
@@ -11941,7 +11940,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1">
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>660</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1">
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
         <v>682</v>
       </c>
@@ -11971,7 +11970,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1">
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
         <v>684</v>
       </c>
@@ -11986,7 +11985,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1">
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>686</v>
       </c>
@@ -12001,7 +12000,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1">
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
         <v>688</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1">
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
         <v>690</v>
       </c>
@@ -12031,7 +12030,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1">
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>746</v>
       </c>
@@ -12046,7 +12045,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1">
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>748</v>
       </c>
@@ -12061,7 +12060,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1">
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
         <v>750</v>
       </c>
@@ -12076,7 +12075,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1">
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
         <v>752</v>
       </c>
@@ -12091,7 +12090,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1">
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
         <v>754</v>
       </c>
@@ -12106,7 +12105,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1">
+    <row r="249" spans="1:6">
       <c r="A249" t="s">
         <v>756</v>
       </c>
@@ -12121,7 +12120,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1">
+    <row r="250" spans="1:6">
       <c r="A250" t="s">
         <v>758</v>
       </c>
@@ -12136,7 +12135,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1">
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
         <v>760</v>
       </c>
@@ -12151,7 +12150,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1">
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
         <v>762</v>
       </c>
@@ -12166,7 +12165,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1">
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
         <v>764</v>
       </c>
@@ -12181,7 +12180,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1">
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
         <v>766</v>
       </c>
@@ -12196,7 +12195,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1">
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
         <v>768</v>
       </c>
@@ -12211,7 +12210,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1">
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
         <v>662</v>
       </c>
@@ -12226,7 +12225,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1">
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
         <v>664</v>
       </c>
@@ -12241,7 +12240,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1">
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>666</v>
       </c>
@@ -12256,7 +12255,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1">
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>668</v>
       </c>
@@ -12271,7 +12270,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1">
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>670</v>
       </c>
@@ -12286,7 +12285,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1">
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>672</v>
       </c>
@@ -12301,7 +12300,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1">
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>674</v>
       </c>
@@ -12316,7 +12315,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1">
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>676</v>
       </c>
@@ -12331,7 +12330,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1">
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>678</v>
       </c>
@@ -12346,7 +12345,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1">
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>680</v>
       </c>
@@ -12361,7 +12360,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1">
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>770</v>
       </c>
@@ -12376,7 +12375,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1">
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>772</v>
       </c>
@@ -12391,7 +12390,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1">
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>774</v>
       </c>
@@ -12406,7 +12405,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1">
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>776</v>
       </c>
@@ -12421,7 +12420,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1">
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>778</v>
       </c>
@@ -12436,7 +12435,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1">
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>780</v>
       </c>
@@ -12451,7 +12450,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1">
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>782</v>
       </c>
@@ -12466,7 +12465,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1">
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>784</v>
       </c>
@@ -12481,7 +12480,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1">
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>786</v>
       </c>
@@ -12496,7 +12495,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1">
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>788</v>
       </c>
@@ -12511,7 +12510,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1">
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>790</v>
       </c>
@@ -12526,7 +12525,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1">
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>792</v>
       </c>
@@ -12541,7 +12540,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1">
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>794</v>
       </c>
@@ -12556,7 +12555,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1">
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>796</v>
       </c>
@@ -12571,7 +12570,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1">
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>798</v>
       </c>
@@ -12586,7 +12585,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1">
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>800</v>
       </c>
@@ -12601,7 +12600,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1">
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>802</v>
       </c>
@@ -12616,7 +12615,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1">
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>804</v>
       </c>
@@ -12631,7 +12630,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1">
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>806</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1">
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>808</v>
       </c>
@@ -12661,7 +12660,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1">
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>810</v>
       </c>
@@ -12676,7 +12675,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1">
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>812</v>
       </c>
@@ -12691,7 +12690,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1">
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>814</v>
       </c>
@@ -12706,7 +12705,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1">
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>816</v>
       </c>
@@ -12721,7 +12720,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1">
+    <row r="290" spans="1:6">
       <c r="A290" t="s">
         <v>818</v>
       </c>
@@ -12736,7 +12735,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1">
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
         <v>820</v>
       </c>
@@ -12751,7 +12750,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1">
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
         <v>822</v>
       </c>
@@ -12766,7 +12765,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1">
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
         <v>824</v>
       </c>
@@ -12781,7 +12780,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1">
+    <row r="294" spans="1:6">
       <c r="A294" t="s">
         <v>826</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1">
+    <row r="295" spans="1:6">
       <c r="A295" t="s">
         <v>828</v>
       </c>
@@ -12811,7 +12810,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1">
+    <row r="296" spans="1:6">
       <c r="A296" t="s">
         <v>830</v>
       </c>
@@ -12826,7 +12825,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1">
+    <row r="297" spans="1:6">
       <c r="A297" t="s">
         <v>832</v>
       </c>
@@ -12841,7 +12840,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1">
+    <row r="298" spans="1:6">
       <c r="A298" t="s">
         <v>834</v>
       </c>
@@ -12856,7 +12855,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1">
+    <row r="299" spans="1:6">
       <c r="A299" t="s">
         <v>836</v>
       </c>
@@ -12871,7 +12870,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1">
+    <row r="300" spans="1:6">
       <c r="A300" t="s">
         <v>838</v>
       </c>
@@ -12886,7 +12885,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1">
+    <row r="301" spans="1:6">
       <c r="A301" t="s">
         <v>840</v>
       </c>
@@ -12901,7 +12900,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1">
+    <row r="302" spans="1:6">
       <c r="A302" t="s">
         <v>842</v>
       </c>
@@ -12916,7 +12915,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1">
+    <row r="303" spans="1:6">
       <c r="A303" t="s">
         <v>844</v>
       </c>
@@ -12931,7 +12930,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1">
+    <row r="304" spans="1:6">
       <c r="A304" t="s">
         <v>846</v>
       </c>
@@ -12946,7 +12945,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1">
+    <row r="305" spans="1:6">
       <c r="A305" t="s">
         <v>848</v>
       </c>
@@ -12961,7 +12960,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1">
+    <row r="306" spans="1:6">
       <c r="A306" t="s">
         <v>850</v>
       </c>
@@ -12976,7 +12975,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1">
+    <row r="307" spans="1:6">
       <c r="A307" t="s">
         <v>852</v>
       </c>
@@ -12991,7 +12990,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1">
+    <row r="308" spans="1:6">
       <c r="A308" t="s">
         <v>854</v>
       </c>
@@ -13006,7 +13005,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1">
+    <row r="309" spans="1:6">
       <c r="A309" t="s">
         <v>692</v>
       </c>
@@ -13021,7 +13020,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1">
+    <row r="310" spans="1:6">
       <c r="A310" t="s">
         <v>694</v>
       </c>
@@ -13036,7 +13035,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1">
+    <row r="311" spans="1:6">
       <c r="A311" t="s">
         <v>696</v>
       </c>
@@ -13051,7 +13050,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1">
+    <row r="312" spans="1:6">
       <c r="A312" t="s">
         <v>698</v>
       </c>
@@ -13066,7 +13065,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1">
+    <row r="313" spans="1:6">
       <c r="A313" t="s">
         <v>700</v>
       </c>
@@ -13081,7 +13080,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1">
+    <row r="314" spans="1:6">
       <c r="A314" t="s">
         <v>702</v>
       </c>
@@ -13096,7 +13095,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1">
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>704</v>
       </c>
@@ -13111,7 +13110,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1">
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>706</v>
       </c>
@@ -13126,7 +13125,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1">
+    <row r="317" spans="1:6">
       <c r="A317" t="s">
         <v>708</v>
       </c>
@@ -13141,7 +13140,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1">
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>710</v>
       </c>
@@ -13156,7 +13155,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1">
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>712</v>
       </c>
@@ -13171,7 +13170,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1">
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>714</v>
       </c>
@@ -13186,7 +13185,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1">
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>716</v>
       </c>
@@ -13201,7 +13200,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1">
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>718</v>
       </c>
@@ -13216,7 +13215,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1">
+    <row r="323" spans="1:6">
       <c r="A323" t="s">
         <v>720</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1">
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>722</v>
       </c>
@@ -13246,7 +13245,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1">
+    <row r="325" spans="1:6">
       <c r="A325" t="s">
         <v>724</v>
       </c>
@@ -13261,7 +13260,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1">
+    <row r="326" spans="1:6">
       <c r="A326" t="s">
         <v>726</v>
       </c>
@@ -13276,7 +13275,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1">
+    <row r="327" spans="1:6">
       <c r="A327" t="s">
         <v>728</v>
       </c>
@@ -13291,7 +13290,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1">
+    <row r="328" spans="1:6">
       <c r="A328" t="s">
         <v>730</v>
       </c>
@@ -13306,7 +13305,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1">
+    <row r="329" spans="1:6">
       <c r="A329" t="s">
         <v>732</v>
       </c>
@@ -13321,7 +13320,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1">
+    <row r="330" spans="1:6">
       <c r="A330" t="s">
         <v>734</v>
       </c>
@@ -13336,7 +13335,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1">
+    <row r="331" spans="1:6">
       <c r="A331" t="s">
         <v>736</v>
       </c>
@@ -13351,7 +13350,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1">
+    <row r="332" spans="1:6">
       <c r="A332" t="s">
         <v>738</v>
       </c>
@@ -13366,7 +13365,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1">
+    <row r="333" spans="1:6">
       <c r="A333" t="s">
         <v>740</v>
       </c>
@@ -13381,7 +13380,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1">
+    <row r="334" spans="1:6">
       <c r="A334" t="s">
         <v>742</v>
       </c>
@@ -13396,7 +13395,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1">
+    <row r="335" spans="1:6">
       <c r="A335" t="s">
         <v>744</v>
       </c>
@@ -13411,7 +13410,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1">
+    <row r="336" spans="1:6">
       <c r="A336" t="s">
         <v>856</v>
       </c>
@@ -13426,7 +13425,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1">
+    <row r="337" spans="1:6">
       <c r="A337" t="s">
         <v>1828</v>
       </c>
@@ -13441,7 +13440,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1">
+    <row r="338" spans="1:6">
       <c r="A338" t="s">
         <v>1732</v>
       </c>
@@ -13456,7 +13455,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1">
+    <row r="339" spans="1:6">
       <c r="A339" t="s">
         <v>1830</v>
       </c>
@@ -13471,7 +13470,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1">
+    <row r="340" spans="1:6">
       <c r="A340" t="s">
         <v>1744</v>
       </c>
@@ -13486,7 +13485,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1">
+    <row r="341" spans="1:6">
       <c r="A341" t="s">
         <v>1734</v>
       </c>
@@ -13519,7 +13518,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1">
+    <row r="343" spans="1:6">
       <c r="A343" t="s">
         <v>1832</v>
       </c>
@@ -13534,7 +13533,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1">
+    <row r="344" spans="1:6">
       <c r="A344" t="s">
         <v>1834</v>
       </c>
@@ -13549,7 +13548,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1">
+    <row r="345" spans="1:6">
       <c r="A345" t="s">
         <v>1836</v>
       </c>
@@ -13564,7 +13563,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1">
+    <row r="346" spans="1:6">
       <c r="A346" t="s">
         <v>1796</v>
       </c>
@@ -13579,7 +13578,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1">
+    <row r="347" spans="1:6">
       <c r="A347" t="s">
         <v>1860</v>
       </c>
@@ -13594,7 +13593,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1">
+    <row r="348" spans="1:6">
       <c r="A348" t="s">
         <v>1820</v>
       </c>
@@ -13609,7 +13608,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1">
+    <row r="349" spans="1:6">
       <c r="A349" t="s">
         <v>1664</v>
       </c>
@@ -13624,7 +13623,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1">
+    <row r="350" spans="1:6">
       <c r="A350" t="s">
         <v>1662</v>
       </c>
@@ -13639,7 +13638,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1">
+    <row r="351" spans="1:6">
       <c r="A351" t="s">
         <v>1666</v>
       </c>
@@ -13654,7 +13653,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1">
+    <row r="352" spans="1:6">
       <c r="A352" t="s">
         <v>1762</v>
       </c>
@@ -13669,7 +13668,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1">
+    <row r="353" spans="1:6">
       <c r="A353" t="s">
         <v>1856</v>
       </c>
@@ -13684,7 +13683,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1">
+    <row r="354" spans="1:6">
       <c r="A354" t="s">
         <v>1692</v>
       </c>
@@ -13699,7 +13698,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1">
+    <row r="355" spans="1:6">
       <c r="A355" t="s">
         <v>1696</v>
       </c>
@@ -13714,7 +13713,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1">
+    <row r="356" spans="1:6">
       <c r="A356" t="s">
         <v>1690</v>
       </c>
@@ -13747,7 +13746,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1">
+    <row r="358" spans="1:6">
       <c r="A358" t="s">
         <v>1698</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1">
+    <row r="359" spans="1:6">
       <c r="A359" t="s">
         <v>1694</v>
       </c>
@@ -13777,7 +13776,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1">
+    <row r="360" spans="1:6">
       <c r="A360" t="s">
         <v>22</v>
       </c>
@@ -13792,7 +13791,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1">
+    <row r="361" spans="1:6">
       <c r="A361" t="s">
         <v>24</v>
       </c>
@@ -13807,7 +13806,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1">
+    <row r="362" spans="1:6">
       <c r="A362" t="s">
         <v>20</v>
       </c>
@@ -13840,7 +13839,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1">
+    <row r="364" spans="1:6">
       <c r="A364" t="s">
         <v>1788</v>
       </c>
@@ -13855,7 +13854,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1">
+    <row r="365" spans="1:6">
       <c r="A365" t="s">
         <v>1730</v>
       </c>
@@ -13870,7 +13869,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1">
+    <row r="366" spans="1:6">
       <c r="A366" t="s">
         <v>1728</v>
       </c>
@@ -13885,7 +13884,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1">
+    <row r="367" spans="1:6">
       <c r="A367" t="s">
         <v>1668</v>
       </c>
@@ -13900,7 +13899,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1">
+    <row r="368" spans="1:6">
       <c r="A368" t="s">
         <v>1676</v>
       </c>
@@ -13933,7 +13932,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1">
+    <row r="370" spans="1:8">
       <c r="A370" t="s">
         <v>10</v>
       </c>
@@ -13948,7 +13947,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1">
+    <row r="371" spans="1:8">
       <c r="A371" t="s">
         <v>1642</v>
       </c>
@@ -13963,7 +13962,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1">
+    <row r="372" spans="1:8">
       <c r="A372" t="s">
         <v>1644</v>
       </c>
@@ -13978,7 +13977,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1">
+    <row r="373" spans="1:8">
       <c r="A373" t="s">
         <v>1646</v>
       </c>
@@ -13993,7 +13992,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1">
+    <row r="374" spans="1:8">
       <c r="A374" t="s">
         <v>16</v>
       </c>
@@ -14008,7 +14007,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1">
+    <row r="375" spans="1:8">
       <c r="A375" t="s">
         <v>1358</v>
       </c>
@@ -14026,7 +14025,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1">
+    <row r="376" spans="1:8">
       <c r="A376" t="s">
         <v>1360</v>
       </c>
@@ -14044,7 +14043,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1">
+    <row r="377" spans="1:8">
       <c r="A377" t="s">
         <v>1362</v>
       </c>
@@ -14062,7 +14061,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1">
+    <row r="378" spans="1:8">
       <c r="A378" t="s">
         <v>1364</v>
       </c>
@@ -14089,7 +14088,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1">
+    <row r="379" spans="1:8">
       <c r="A379" t="s">
         <v>1366</v>
       </c>
@@ -14107,7 +14106,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1">
+    <row r="380" spans="1:8">
       <c r="A380" t="s">
         <v>1368</v>
       </c>
@@ -14125,7 +14124,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1">
+    <row r="381" spans="1:8">
       <c r="A381" t="s">
         <v>1370</v>
       </c>
@@ -14152,7 +14151,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1">
+    <row r="382" spans="1:8">
       <c r="A382" t="s">
         <v>1372</v>
       </c>
@@ -14170,7 +14169,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1">
+    <row r="383" spans="1:8">
       <c r="A383" t="s">
         <v>1374</v>
       </c>
@@ -14191,7 +14190,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1">
+    <row r="384" spans="1:8">
       <c r="A384" t="s">
         <v>1376</v>
       </c>
@@ -14218,7 +14217,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1">
+    <row r="385" spans="1:6">
       <c r="A385" t="s">
         <v>1408</v>
       </c>
@@ -14239,7 +14238,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1">
+    <row r="386" spans="1:6">
       <c r="A386" t="s">
         <v>1410</v>
       </c>
@@ -14260,7 +14259,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1">
+    <row r="387" spans="1:6">
       <c r="A387" t="s">
         <v>1412</v>
       </c>
@@ -14278,7 +14277,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1">
+    <row r="388" spans="1:6">
       <c r="A388" t="s">
         <v>1482</v>
       </c>
@@ -14296,7 +14295,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1">
+    <row r="389" spans="1:6">
       <c r="A389" t="s">
         <v>1484</v>
       </c>
@@ -14314,7 +14313,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1">
+    <row r="390" spans="1:6">
       <c r="A390" t="s">
         <v>1486</v>
       </c>
@@ -14332,7 +14331,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1">
+    <row r="391" spans="1:6">
       <c r="A391" t="s">
         <v>1488</v>
       </c>
@@ -14350,7 +14349,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1">
+    <row r="392" spans="1:6">
       <c r="A392" t="s">
         <v>1490</v>
       </c>
@@ -14368,7 +14367,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1">
+    <row r="393" spans="1:6">
       <c r="A393" t="s">
         <v>1492</v>
       </c>
@@ -14386,7 +14385,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1">
+    <row r="394" spans="1:6">
       <c r="A394" t="s">
         <v>1494</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1">
+    <row r="395" spans="1:6">
       <c r="A395" t="s">
         <v>1496</v>
       </c>
@@ -14422,7 +14421,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1">
+    <row r="396" spans="1:6">
       <c r="A396" t="s">
         <v>1498</v>
       </c>
@@ -14443,7 +14442,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1">
+    <row r="397" spans="1:6">
       <c r="A397" t="s">
         <v>1500</v>
       </c>
@@ -14461,7 +14460,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1">
+    <row r="398" spans="1:6">
       <c r="A398" t="s">
         <v>1502</v>
       </c>
@@ -14479,7 +14478,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1">
+    <row r="399" spans="1:6">
       <c r="A399" t="s">
         <v>1504</v>
       </c>
@@ -14497,7 +14496,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1">
+    <row r="400" spans="1:6">
       <c r="A400" t="s">
         <v>1506</v>
       </c>
@@ -14515,7 +14514,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1">
+    <row r="401" spans="1:6">
       <c r="A401" t="s">
         <v>1508</v>
       </c>
@@ -14533,7 +14532,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1">
+    <row r="402" spans="1:6">
       <c r="A402" t="s">
         <v>1510</v>
       </c>
@@ -14551,7 +14550,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1">
+    <row r="403" spans="1:6">
       <c r="A403" t="s">
         <v>1456</v>
       </c>
@@ -14569,7 +14568,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1">
+    <row r="404" spans="1:6">
       <c r="A404" t="s">
         <v>1458</v>
       </c>
@@ -14587,7 +14586,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1">
+    <row r="405" spans="1:6">
       <c r="A405" t="s">
         <v>1460</v>
       </c>
@@ -14605,7 +14604,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1">
+    <row r="406" spans="1:6">
       <c r="A406" t="s">
         <v>1462</v>
       </c>
@@ -14623,7 +14622,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1">
+    <row r="407" spans="1:6">
       <c r="A407" t="s">
         <v>1464</v>
       </c>
@@ -14641,7 +14640,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1">
+    <row r="408" spans="1:6">
       <c r="A408" t="s">
         <v>1466</v>
       </c>
@@ -14659,7 +14658,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1">
+    <row r="409" spans="1:6">
       <c r="A409" t="s">
         <v>1468</v>
       </c>
@@ -14677,7 +14676,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1">
+    <row r="410" spans="1:6">
       <c r="A410" t="s">
         <v>1470</v>
       </c>
@@ -14695,7 +14694,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1">
+    <row r="411" spans="1:6">
       <c r="A411" t="s">
         <v>1472</v>
       </c>
@@ -14713,7 +14712,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1">
+    <row r="412" spans="1:6">
       <c r="A412" t="s">
         <v>1474</v>
       </c>
@@ -14731,7 +14730,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1">
+    <row r="413" spans="1:6">
       <c r="A413" t="s">
         <v>1476</v>
       </c>
@@ -14749,7 +14748,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1">
+    <row r="414" spans="1:6">
       <c r="A414" t="s">
         <v>1478</v>
       </c>
@@ -14770,7 +14769,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1">
+    <row r="415" spans="1:6">
       <c r="A415" t="s">
         <v>1480</v>
       </c>
@@ -14788,7 +14787,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1">
+    <row r="416" spans="1:6">
       <c r="A416" t="s">
         <v>1414</v>
       </c>
@@ -14806,7 +14805,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1">
+    <row r="417" spans="1:6">
       <c r="A417" t="s">
         <v>1416</v>
       </c>
@@ -14824,7 +14823,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1">
+    <row r="418" spans="1:6">
       <c r="A418" t="s">
         <v>1418</v>
       </c>
@@ -14842,7 +14841,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1">
+    <row r="419" spans="1:6">
       <c r="A419" t="s">
         <v>1420</v>
       </c>
@@ -14860,7 +14859,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1">
+    <row r="420" spans="1:6">
       <c r="A420" t="s">
         <v>1422</v>
       </c>
@@ -14878,7 +14877,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1">
+    <row r="421" spans="1:6">
       <c r="A421" t="s">
         <v>1424</v>
       </c>
@@ -14896,7 +14895,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1">
+    <row r="422" spans="1:6">
       <c r="A422" t="s">
         <v>1426</v>
       </c>
@@ -14914,7 +14913,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1">
+    <row r="423" spans="1:6">
       <c r="A423" t="s">
         <v>1428</v>
       </c>
@@ -14932,7 +14931,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1">
+    <row r="424" spans="1:6">
       <c r="A424" t="s">
         <v>1430</v>
       </c>
@@ -14950,7 +14949,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1">
+    <row r="425" spans="1:6">
       <c r="A425" t="s">
         <v>1432</v>
       </c>
@@ -14968,7 +14967,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1">
+    <row r="426" spans="1:6">
       <c r="A426" t="s">
         <v>1434</v>
       </c>
@@ -14989,7 +14988,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1">
+    <row r="427" spans="1:6">
       <c r="A427" t="s">
         <v>1436</v>
       </c>
@@ -15010,7 +15009,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1">
+    <row r="428" spans="1:6">
       <c r="A428" t="s">
         <v>1438</v>
       </c>
@@ -15031,7 +15030,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1">
+    <row r="429" spans="1:6">
       <c r="A429" t="s">
         <v>1440</v>
       </c>
@@ -15052,7 +15051,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1">
+    <row r="430" spans="1:6">
       <c r="A430" t="s">
         <v>1442</v>
       </c>
@@ -15073,7 +15072,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1">
+    <row r="431" spans="1:6">
       <c r="A431" t="s">
         <v>1444</v>
       </c>
@@ -15094,7 +15093,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1">
+    <row r="432" spans="1:6">
       <c r="A432" t="s">
         <v>1446</v>
       </c>
@@ -15115,7 +15114,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1">
+    <row r="433" spans="1:6">
       <c r="A433" t="s">
         <v>1448</v>
       </c>
@@ -15136,7 +15135,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1">
+    <row r="434" spans="1:6">
       <c r="A434" t="s">
         <v>1450</v>
       </c>
@@ -15157,7 +15156,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1">
+    <row r="435" spans="1:6">
       <c r="A435" t="s">
         <v>1452</v>
       </c>
@@ -15178,7 +15177,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1">
+    <row r="436" spans="1:6">
       <c r="A436" t="s">
         <v>1454</v>
       </c>
@@ -15199,7 +15198,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1">
+    <row r="437" spans="1:6">
       <c r="A437" t="s">
         <v>1604</v>
       </c>
@@ -15217,7 +15216,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1">
+    <row r="438" spans="1:6">
       <c r="A438" t="s">
         <v>1606</v>
       </c>
@@ -15235,7 +15234,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1">
+    <row r="439" spans="1:6">
       <c r="A439" t="s">
         <v>1608</v>
       </c>
@@ -15253,7 +15252,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1">
+    <row r="440" spans="1:6">
       <c r="A440" t="s">
         <v>1634</v>
       </c>
@@ -15271,7 +15270,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1">
+    <row r="441" spans="1:6">
       <c r="A441" t="s">
         <v>1636</v>
       </c>
@@ -15292,7 +15291,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1">
+    <row r="442" spans="1:6">
       <c r="A442" t="s">
         <v>1378</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1">
+    <row r="443" spans="1:6">
       <c r="A443" t="s">
         <v>1380</v>
       </c>
@@ -15328,7 +15327,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1">
+    <row r="444" spans="1:6">
       <c r="A444" t="s">
         <v>1382</v>
       </c>
@@ -15346,7 +15345,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1">
+    <row r="445" spans="1:6">
       <c r="A445" t="s">
         <v>1384</v>
       </c>
@@ -15364,7 +15363,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1">
+    <row r="446" spans="1:6">
       <c r="A446" t="s">
         <v>1386</v>
       </c>
@@ -15382,7 +15381,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1">
+    <row r="447" spans="1:6">
       <c r="A447" t="s">
         <v>1388</v>
       </c>
@@ -15400,7 +15399,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1">
+    <row r="448" spans="1:6">
       <c r="A448" t="s">
         <v>1390</v>
       </c>
@@ -15418,7 +15417,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1">
+    <row r="449" spans="1:6">
       <c r="A449" t="s">
         <v>1392</v>
       </c>
@@ -15436,7 +15435,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1">
+    <row r="450" spans="1:6">
       <c r="A450" t="s">
         <v>1394</v>
       </c>
@@ -15454,7 +15453,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1">
+    <row r="451" spans="1:6">
       <c r="A451" t="s">
         <v>1396</v>
       </c>
@@ -15472,7 +15471,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1">
+    <row r="452" spans="1:6">
       <c r="A452" t="s">
         <v>1398</v>
       </c>
@@ -15490,7 +15489,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1">
+    <row r="453" spans="1:6">
       <c r="A453" t="s">
         <v>1400</v>
       </c>
@@ -15508,7 +15507,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1">
+    <row r="454" spans="1:6">
       <c r="A454" t="s">
         <v>1402</v>
       </c>
@@ -15526,7 +15525,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1">
+    <row r="455" spans="1:6">
       <c r="A455" t="s">
         <v>1404</v>
       </c>
@@ -15544,7 +15543,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1">
+    <row r="456" spans="1:6">
       <c r="A456" t="s">
         <v>1406</v>
       </c>
@@ -15562,7 +15561,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1">
+    <row r="457" spans="1:6">
       <c r="A457" t="s">
         <v>1512</v>
       </c>
@@ -15580,7 +15579,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1">
+    <row r="458" spans="1:6">
       <c r="A458" t="s">
         <v>1514</v>
       </c>
@@ -15598,7 +15597,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1">
+    <row r="459" spans="1:6">
       <c r="A459" t="s">
         <v>1516</v>
       </c>
@@ -15616,7 +15615,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1">
+    <row r="460" spans="1:6">
       <c r="A460" t="s">
         <v>1518</v>
       </c>
@@ -15634,7 +15633,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1">
+    <row r="461" spans="1:6">
       <c r="A461" t="s">
         <v>1520</v>
       </c>
@@ -15652,7 +15651,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1">
+    <row r="462" spans="1:6">
       <c r="A462" t="s">
         <v>1522</v>
       </c>
@@ -15670,7 +15669,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1">
+    <row r="463" spans="1:6">
       <c r="A463" t="s">
         <v>1523</v>
       </c>
@@ -15688,7 +15687,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1">
+    <row r="464" spans="1:6">
       <c r="A464" t="s">
         <v>1525</v>
       </c>
@@ -15706,7 +15705,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1">
+    <row r="465" spans="1:6">
       <c r="A465" t="s">
         <v>1527</v>
       </c>
@@ -15724,7 +15723,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1">
+    <row r="466" spans="1:6">
       <c r="A466" t="s">
         <v>1529</v>
       </c>
@@ -15742,7 +15741,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1">
+    <row r="467" spans="1:6">
       <c r="A467" t="s">
         <v>1531</v>
       </c>
@@ -15760,7 +15759,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1">
+    <row r="468" spans="1:6">
       <c r="A468" t="s">
         <v>1533</v>
       </c>
@@ -15778,7 +15777,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1">
+    <row r="469" spans="1:6">
       <c r="A469" t="s">
         <v>1535</v>
       </c>
@@ -15796,7 +15795,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1">
+    <row r="470" spans="1:6">
       <c r="A470" t="s">
         <v>1537</v>
       </c>
@@ -15814,7 +15813,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1">
+    <row r="471" spans="1:6">
       <c r="A471" t="s">
         <v>1539</v>
       </c>
@@ -15832,7 +15831,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1">
+    <row r="472" spans="1:6">
       <c r="A472" t="s">
         <v>1541</v>
       </c>
@@ -15850,7 +15849,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1">
+    <row r="473" spans="1:6">
       <c r="A473" t="s">
         <v>1543</v>
       </c>
@@ -15868,7 +15867,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1">
+    <row r="474" spans="1:6">
       <c r="A474" t="s">
         <v>1545</v>
       </c>
@@ -15886,7 +15885,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1">
+    <row r="475" spans="1:6">
       <c r="A475" t="s">
         <v>1546</v>
       </c>
@@ -15904,7 +15903,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1">
+    <row r="476" spans="1:6">
       <c r="A476" t="s">
         <v>1547</v>
       </c>
@@ -15922,7 +15921,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1">
+    <row r="477" spans="1:6">
       <c r="A477" t="s">
         <v>1549</v>
       </c>
@@ -15940,7 +15939,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1">
+    <row r="478" spans="1:6">
       <c r="A478" t="s">
         <v>1550</v>
       </c>
@@ -15958,7 +15957,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1">
+    <row r="479" spans="1:6">
       <c r="A479" t="s">
         <v>1551</v>
       </c>
@@ -15976,7 +15975,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1">
+    <row r="480" spans="1:6">
       <c r="A480" t="s">
         <v>1552</v>
       </c>
@@ -15994,7 +15993,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1">
+    <row r="481" spans="1:6">
       <c r="A481" t="s">
         <v>1553</v>
       </c>
@@ -16012,7 +16011,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1">
+    <row r="482" spans="1:6">
       <c r="A482" t="s">
         <v>1554</v>
       </c>
@@ -16030,7 +16029,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1">
+    <row r="483" spans="1:6">
       <c r="A483" t="s">
         <v>1555</v>
       </c>
@@ -16048,7 +16047,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1">
+    <row r="484" spans="1:6">
       <c r="A484" t="s">
         <v>1556</v>
       </c>
@@ -16066,7 +16065,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1">
+    <row r="485" spans="1:6">
       <c r="A485" t="s">
         <v>1557</v>
       </c>
@@ -16084,7 +16083,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1">
+    <row r="486" spans="1:6">
       <c r="A486" t="s">
         <v>1559</v>
       </c>
@@ -16102,7 +16101,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1">
+    <row r="487" spans="1:6">
       <c r="A487" t="s">
         <v>1561</v>
       </c>
@@ -16120,7 +16119,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1">
+    <row r="488" spans="1:6">
       <c r="A488" t="s">
         <v>1563</v>
       </c>
@@ -16138,7 +16137,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1">
+    <row r="489" spans="1:6">
       <c r="A489" t="s">
         <v>1565</v>
       </c>
@@ -16156,7 +16155,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1">
+    <row r="490" spans="1:6">
       <c r="A490" t="s">
         <v>1567</v>
       </c>
@@ -16174,7 +16173,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1">
+    <row r="491" spans="1:6">
       <c r="A491" t="s">
         <v>1569</v>
       </c>
@@ -16192,7 +16191,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1">
+    <row r="492" spans="1:6">
       <c r="A492" t="s">
         <v>1571</v>
       </c>
@@ -16210,7 +16209,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1">
+    <row r="493" spans="1:6">
       <c r="A493" t="s">
         <v>1573</v>
       </c>
@@ -16228,7 +16227,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1">
+    <row r="494" spans="1:6">
       <c r="A494" t="s">
         <v>1575</v>
       </c>
@@ -16246,7 +16245,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1">
+    <row r="495" spans="1:6">
       <c r="A495" t="s">
         <v>1577</v>
       </c>
@@ -16264,7 +16263,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1">
+    <row r="496" spans="1:6">
       <c r="A496" t="s">
         <v>1579</v>
       </c>
@@ -16282,7 +16281,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1">
+    <row r="497" spans="1:6">
       <c r="A497" t="s">
         <v>1581</v>
       </c>
@@ -16300,7 +16299,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1">
+    <row r="498" spans="1:6">
       <c r="A498" t="s">
         <v>1583</v>
       </c>
@@ -16318,7 +16317,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1">
+    <row r="499" spans="1:6">
       <c r="A499" t="s">
         <v>1584</v>
       </c>
@@ -16336,7 +16335,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1">
+    <row r="500" spans="1:6">
       <c r="A500" t="s">
         <v>1585</v>
       </c>
@@ -16354,7 +16353,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1">
+    <row r="501" spans="1:6">
       <c r="A501" t="s">
         <v>1586</v>
       </c>
@@ -16372,7 +16371,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1">
+    <row r="502" spans="1:6">
       <c r="A502" t="s">
         <v>1588</v>
       </c>
@@ -16390,7 +16389,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1">
+    <row r="503" spans="1:6">
       <c r="A503" t="s">
         <v>1589</v>
       </c>
@@ -16408,7 +16407,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1">
+    <row r="504" spans="1:6">
       <c r="A504" t="s">
         <v>1590</v>
       </c>
@@ -16426,7 +16425,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1">
+    <row r="505" spans="1:6">
       <c r="A505" t="s">
         <v>1591</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1">
+    <row r="506" spans="1:6">
       <c r="A506" t="s">
         <v>1592</v>
       </c>
@@ -16465,7 +16464,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1">
+    <row r="507" spans="1:6">
       <c r="A507" t="s">
         <v>1594</v>
       </c>
@@ -16486,7 +16485,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1">
+    <row r="508" spans="1:6">
       <c r="A508" t="s">
         <v>1596</v>
       </c>
@@ -16507,7 +16506,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1">
+    <row r="509" spans="1:6">
       <c r="A509" t="s">
         <v>1598</v>
       </c>
@@ -16528,7 +16527,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1">
+    <row r="510" spans="1:6">
       <c r="A510" t="s">
         <v>1600</v>
       </c>
@@ -16549,7 +16548,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1">
+    <row r="511" spans="1:6">
       <c r="A511" t="s">
         <v>1602</v>
       </c>
@@ -16570,7 +16569,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1">
+    <row r="512" spans="1:6">
       <c r="A512" t="s">
         <v>1630</v>
       </c>
@@ -16588,7 +16587,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1">
+    <row r="513" spans="1:6">
       <c r="A513" t="s">
         <v>1632</v>
       </c>
@@ -16606,7 +16605,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1">
+    <row r="514" spans="1:6">
       <c r="A514" t="s">
         <v>1610</v>
       </c>
@@ -16624,7 +16623,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1">
+    <row r="515" spans="1:6">
       <c r="A515" t="s">
         <v>1612</v>
       </c>
@@ -16642,7 +16641,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1">
+    <row r="516" spans="1:6">
       <c r="A516" t="s">
         <v>1614</v>
       </c>
@@ -16660,7 +16659,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1">
+    <row r="517" spans="1:6">
       <c r="A517" t="s">
         <v>1616</v>
       </c>
@@ -16678,7 +16677,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1">
+    <row r="518" spans="1:6">
       <c r="A518" t="s">
         <v>1618</v>
       </c>
@@ -16696,7 +16695,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1">
+    <row r="519" spans="1:6">
       <c r="A519" t="s">
         <v>1620</v>
       </c>
@@ -16714,7 +16713,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1">
+    <row r="520" spans="1:6">
       <c r="A520" t="s">
         <v>1622</v>
       </c>
@@ -16732,7 +16731,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1">
+    <row r="521" spans="1:6">
       <c r="A521" t="s">
         <v>1624</v>
       </c>
@@ -16750,7 +16749,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1">
+    <row r="522" spans="1:6">
       <c r="A522" t="s">
         <v>1626</v>
       </c>
@@ -16768,7 +16767,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1">
+    <row r="523" spans="1:6">
       <c r="A523" t="s">
         <v>1628</v>
       </c>
@@ -16786,7 +16785,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1">
+    <row r="524" spans="1:6">
       <c r="A524" t="s">
         <v>1674</v>
       </c>
@@ -16801,7 +16800,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1">
+    <row r="525" spans="1:6">
       <c r="A525" t="s">
         <v>1682</v>
       </c>
@@ -16816,7 +16815,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1">
+    <row r="526" spans="1:6">
       <c r="A526" t="s">
         <v>1852</v>
       </c>
@@ -16831,7 +16830,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1">
+    <row r="527" spans="1:6">
       <c r="A527" t="s">
         <v>1770</v>
       </c>
@@ -16846,7 +16845,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1">
+    <row r="528" spans="1:6">
       <c r="A528" t="s">
         <v>1772</v>
       </c>
@@ -16861,7 +16860,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1">
+    <row r="529" spans="1:6">
       <c r="A529" t="s">
         <v>1752</v>
       </c>
@@ -16876,7 +16875,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1">
+    <row r="530" spans="1:6">
       <c r="A530" t="s">
         <v>1798</v>
       </c>
@@ -16909,7 +16908,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1">
+    <row r="532" spans="1:6">
       <c r="A532" t="s">
         <v>1850</v>
       </c>
@@ -16924,7 +16923,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1">
+    <row r="533" spans="1:6">
       <c r="A533" t="s">
         <v>1854</v>
       </c>
@@ -16939,7 +16938,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1">
+    <row r="534" spans="1:6">
       <c r="A534" t="s">
         <v>1652</v>
       </c>
@@ -16954,7 +16953,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1">
+    <row r="535" spans="1:6">
       <c r="A535" t="s">
         <v>2112</v>
       </c>
@@ -16969,7 +16968,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1">
+    <row r="536" spans="1:6">
       <c r="A536" t="s">
         <v>2052</v>
       </c>
@@ -16987,7 +16986,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1">
+    <row r="537" spans="1:6">
       <c r="A537" t="s">
         <v>2172</v>
       </c>
@@ -17002,7 +17001,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1">
+    <row r="538" spans="1:6">
       <c r="A538" t="s">
         <v>2132</v>
       </c>
@@ -17017,7 +17016,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1">
+    <row r="539" spans="1:6">
       <c r="A539" t="s">
         <v>2152</v>
       </c>
@@ -17032,7 +17031,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1">
+    <row r="540" spans="1:6">
       <c r="A540" t="s">
         <v>2072</v>
       </c>
@@ -17047,7 +17046,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1">
+    <row r="541" spans="1:6">
       <c r="A541" t="s">
         <v>2212</v>
       </c>
@@ -17062,7 +17061,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1">
+    <row r="542" spans="1:6">
       <c r="A542" t="s">
         <v>2192</v>
       </c>
@@ -17077,7 +17076,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1">
+    <row r="543" spans="1:6">
       <c r="A543" t="s">
         <v>2092</v>
       </c>
@@ -17092,7 +17091,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1">
+    <row r="544" spans="1:6">
       <c r="A544" t="s">
         <v>2094</v>
       </c>
@@ -17107,7 +17106,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1">
+    <row r="545" spans="1:6">
       <c r="A545" t="s">
         <v>2034</v>
       </c>
@@ -17125,7 +17124,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="546" spans="1:6" hidden="1">
+    <row r="546" spans="1:6">
       <c r="A546" t="s">
         <v>2154</v>
       </c>
@@ -17140,7 +17139,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1">
+    <row r="547" spans="1:6">
       <c r="A547" t="s">
         <v>2114</v>
       </c>
@@ -17155,7 +17154,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1">
+    <row r="548" spans="1:6">
       <c r="A548" t="s">
         <v>2134</v>
       </c>
@@ -17170,7 +17169,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1">
+    <row r="549" spans="1:6">
       <c r="A549" t="s">
         <v>2054</v>
       </c>
@@ -17185,7 +17184,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1">
+    <row r="550" spans="1:6">
       <c r="A550" t="s">
         <v>2194</v>
       </c>
@@ -17200,7 +17199,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1">
+    <row r="551" spans="1:6">
       <c r="A551" t="s">
         <v>2174</v>
       </c>
@@ -17215,7 +17214,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1">
+    <row r="552" spans="1:6">
       <c r="A552" t="s">
         <v>2074</v>
       </c>
@@ -17230,7 +17229,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1">
+    <row r="553" spans="1:6">
       <c r="A553" t="s">
         <v>2096</v>
       </c>
@@ -17245,7 +17244,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1">
+    <row r="554" spans="1:6">
       <c r="A554" t="s">
         <v>2036</v>
       </c>
@@ -17260,7 +17259,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1">
+    <row r="555" spans="1:6">
       <c r="A555" t="s">
         <v>2156</v>
       </c>
@@ -17275,7 +17274,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1">
+    <row r="556" spans="1:6">
       <c r="A556" t="s">
         <v>2116</v>
       </c>
@@ -17290,7 +17289,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1">
+    <row r="557" spans="1:6">
       <c r="A557" t="s">
         <v>2136</v>
       </c>
@@ -17305,7 +17304,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1">
+    <row r="558" spans="1:6">
       <c r="A558" t="s">
         <v>2056</v>
       </c>
@@ -17320,7 +17319,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1">
+    <row r="559" spans="1:6">
       <c r="A559" t="s">
         <v>2196</v>
       </c>
@@ -17335,7 +17334,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="560" spans="1:6" hidden="1">
+    <row r="560" spans="1:6">
       <c r="A560" t="s">
         <v>2176</v>
       </c>
@@ -17350,7 +17349,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1">
+    <row r="561" spans="1:6">
       <c r="A561" t="s">
         <v>2076</v>
       </c>
@@ -17365,7 +17364,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1">
+    <row r="562" spans="1:6">
       <c r="A562" t="s">
         <v>2098</v>
       </c>
@@ -17398,7 +17397,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1">
+    <row r="564" spans="1:6">
       <c r="A564" t="s">
         <v>2158</v>
       </c>
@@ -17413,7 +17412,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1">
+    <row r="565" spans="1:6">
       <c r="A565" t="s">
         <v>2118</v>
       </c>
@@ -17428,7 +17427,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1">
+    <row r="566" spans="1:6">
       <c r="A566" t="s">
         <v>2138</v>
       </c>
@@ -17461,7 +17460,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1">
+    <row r="568" spans="1:6">
       <c r="A568" t="s">
         <v>2198</v>
       </c>
@@ -17476,7 +17475,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1">
+    <row r="569" spans="1:6">
       <c r="A569" t="s">
         <v>2178</v>
       </c>
@@ -17509,7 +17508,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1">
+    <row r="571" spans="1:6">
       <c r="A571" t="s">
         <v>2100</v>
       </c>
@@ -17524,7 +17523,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1">
+    <row r="572" spans="1:6">
       <c r="A572" t="s">
         <v>2040</v>
       </c>
@@ -17539,7 +17538,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1">
+    <row r="573" spans="1:6">
       <c r="A573" t="s">
         <v>2160</v>
       </c>
@@ -17554,7 +17553,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1">
+    <row r="574" spans="1:6">
       <c r="A574" t="s">
         <v>2120</v>
       </c>
@@ -17569,7 +17568,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1">
+    <row r="575" spans="1:6">
       <c r="A575" t="s">
         <v>2140</v>
       </c>
@@ -17584,7 +17583,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1">
+    <row r="576" spans="1:6">
       <c r="A576" t="s">
         <v>2060</v>
       </c>
@@ -17599,7 +17598,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1">
+    <row r="577" spans="1:6">
       <c r="A577" t="s">
         <v>2200</v>
       </c>
@@ -17614,7 +17613,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1">
+    <row r="578" spans="1:6">
       <c r="A578" t="s">
         <v>2180</v>
       </c>
@@ -17629,7 +17628,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1">
+    <row r="579" spans="1:6">
       <c r="A579" t="s">
         <v>2080</v>
       </c>
@@ -17644,7 +17643,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1">
+    <row r="580" spans="1:6">
       <c r="A580" t="s">
         <v>2102</v>
       </c>
@@ -17659,7 +17658,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1">
+    <row r="581" spans="1:6">
       <c r="A581" t="s">
         <v>2042</v>
       </c>
@@ -17674,7 +17673,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1">
+    <row r="582" spans="1:6">
       <c r="A582" t="s">
         <v>2162</v>
       </c>
@@ -17689,7 +17688,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1">
+    <row r="583" spans="1:6">
       <c r="A583" t="s">
         <v>2122</v>
       </c>
@@ -17704,7 +17703,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1">
+    <row r="584" spans="1:6">
       <c r="A584" t="s">
         <v>2142</v>
       </c>
@@ -17719,7 +17718,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1">
+    <row r="585" spans="1:6">
       <c r="A585" t="s">
         <v>2062</v>
       </c>
@@ -17734,7 +17733,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1">
+    <row r="586" spans="1:6">
       <c r="A586" t="s">
         <v>2202</v>
       </c>
@@ -17749,7 +17748,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1">
+    <row r="587" spans="1:6">
       <c r="A587" t="s">
         <v>2182</v>
       </c>
@@ -17764,7 +17763,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1">
+    <row r="588" spans="1:6">
       <c r="A588" t="s">
         <v>2082</v>
       </c>
@@ -17779,7 +17778,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1">
+    <row r="589" spans="1:6">
       <c r="A589" t="s">
         <v>2104</v>
       </c>
@@ -17794,7 +17793,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1">
+    <row r="590" spans="1:6">
       <c r="A590" t="s">
         <v>2044</v>
       </c>
@@ -17809,7 +17808,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1">
+    <row r="591" spans="1:6">
       <c r="A591" t="s">
         <v>2164</v>
       </c>
@@ -17824,7 +17823,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1">
+    <row r="592" spans="1:6">
       <c r="A592" t="s">
         <v>2124</v>
       </c>
@@ -17839,7 +17838,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1">
+    <row r="593" spans="1:6">
       <c r="A593" t="s">
         <v>2144</v>
       </c>
@@ -17854,7 +17853,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="594" spans="1:6" hidden="1">
+    <row r="594" spans="1:6">
       <c r="A594" t="s">
         <v>2064</v>
       </c>
@@ -17869,7 +17868,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1">
+    <row r="595" spans="1:6">
       <c r="A595" t="s">
         <v>2204</v>
       </c>
@@ -17884,7 +17883,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1">
+    <row r="596" spans="1:6">
       <c r="A596" t="s">
         <v>2184</v>
       </c>
@@ -17899,7 +17898,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1">
+    <row r="597" spans="1:6">
       <c r="A597" t="s">
         <v>2084</v>
       </c>
@@ -17914,7 +17913,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1">
+    <row r="598" spans="1:6">
       <c r="A598" t="s">
         <v>2106</v>
       </c>
@@ -17929,7 +17928,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1">
+    <row r="599" spans="1:6">
       <c r="A599" t="s">
         <v>2046</v>
       </c>
@@ -17944,7 +17943,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1">
+    <row r="600" spans="1:6">
       <c r="A600" t="s">
         <v>2166</v>
       </c>
@@ -17959,7 +17958,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1">
+    <row r="601" spans="1:6">
       <c r="A601" t="s">
         <v>2126</v>
       </c>
@@ -17974,7 +17973,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1">
+    <row r="602" spans="1:6">
       <c r="A602" t="s">
         <v>2146</v>
       </c>
@@ -17989,7 +17988,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1">
+    <row r="603" spans="1:6">
       <c r="A603" t="s">
         <v>2066</v>
       </c>
@@ -18004,7 +18003,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1">
+    <row r="604" spans="1:6">
       <c r="A604" t="s">
         <v>2206</v>
       </c>
@@ -18019,7 +18018,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1">
+    <row r="605" spans="1:6">
       <c r="A605" t="s">
         <v>2186</v>
       </c>
@@ -18034,7 +18033,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1">
+    <row r="606" spans="1:6">
       <c r="A606" t="s">
         <v>2086</v>
       </c>
@@ -18049,7 +18048,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1">
+    <row r="607" spans="1:6">
       <c r="A607" t="s">
         <v>2108</v>
       </c>
@@ -18064,7 +18063,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1">
+    <row r="608" spans="1:6">
       <c r="A608" t="s">
         <v>2048</v>
       </c>
@@ -18079,7 +18078,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1">
+    <row r="609" spans="1:6">
       <c r="A609" t="s">
         <v>2168</v>
       </c>
@@ -18094,7 +18093,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1">
+    <row r="610" spans="1:6">
       <c r="A610" t="s">
         <v>2128</v>
       </c>
@@ -18109,7 +18108,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1">
+    <row r="611" spans="1:6">
       <c r="A611" t="s">
         <v>2148</v>
       </c>
@@ -18124,7 +18123,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1">
+    <row r="612" spans="1:6">
       <c r="A612" t="s">
         <v>2068</v>
       </c>
@@ -18139,7 +18138,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1">
+    <row r="613" spans="1:6">
       <c r="A613" t="s">
         <v>2208</v>
       </c>
@@ -18154,7 +18153,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1">
+    <row r="614" spans="1:6">
       <c r="A614" t="s">
         <v>2188</v>
       </c>
@@ -18169,7 +18168,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1">
+    <row r="615" spans="1:6">
       <c r="A615" t="s">
         <v>2088</v>
       </c>
@@ -18184,7 +18183,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1">
+    <row r="616" spans="1:6">
       <c r="A616" t="s">
         <v>2110</v>
       </c>
@@ -18199,7 +18198,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1">
+    <row r="617" spans="1:6">
       <c r="A617" t="s">
         <v>2050</v>
       </c>
@@ -18214,7 +18213,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1">
+    <row r="618" spans="1:6">
       <c r="A618" t="s">
         <v>2170</v>
       </c>
@@ -18229,7 +18228,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1">
+    <row r="619" spans="1:6">
       <c r="A619" t="s">
         <v>2130</v>
       </c>
@@ -18244,7 +18243,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1">
+    <row r="620" spans="1:6">
       <c r="A620" t="s">
         <v>2150</v>
       </c>
@@ -18259,7 +18258,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1">
+    <row r="621" spans="1:6">
       <c r="A621" t="s">
         <v>2070</v>
       </c>
@@ -18274,7 +18273,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1">
+    <row r="622" spans="1:6">
       <c r="A622" t="s">
         <v>2210</v>
       </c>
@@ -18289,7 +18288,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1">
+    <row r="623" spans="1:6">
       <c r="A623" t="s">
         <v>2190</v>
       </c>
@@ -18304,7 +18303,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1">
+    <row r="624" spans="1:6">
       <c r="A624" t="s">
         <v>2090</v>
       </c>
@@ -18355,7 +18354,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1">
+    <row r="627" spans="1:6">
       <c r="A627" t="s">
         <v>1802</v>
       </c>
@@ -18373,7 +18372,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1">
+    <row r="628" spans="1:6">
       <c r="A628" t="s">
         <v>1718</v>
       </c>
@@ -18391,7 +18390,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1">
+    <row r="629" spans="1:6">
       <c r="A629" t="s">
         <v>1764</v>
       </c>
@@ -18406,7 +18405,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1">
+    <row r="630" spans="1:6">
       <c r="A630" t="s">
         <v>1766</v>
       </c>
@@ -18421,7 +18420,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1">
+    <row r="631" spans="1:6">
       <c r="A631" t="s">
         <v>2214</v>
       </c>
@@ -18454,7 +18453,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1">
+    <row r="633" spans="1:6">
       <c r="A633" t="s">
         <v>1866</v>
       </c>
@@ -18469,7 +18468,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1">
+    <row r="634" spans="1:6">
       <c r="A634" t="s">
         <v>1826</v>
       </c>
@@ -18484,7 +18483,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="635" spans="1:6" hidden="1">
+    <row r="635" spans="1:6">
       <c r="A635" t="s">
         <v>28</v>
       </c>
@@ -18499,7 +18498,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1">
+    <row r="636" spans="1:6">
       <c r="A636" t="s">
         <v>30</v>
       </c>
@@ -18514,7 +18513,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="637" spans="1:6" hidden="1">
+    <row r="637" spans="1:6">
       <c r="A637" t="s">
         <v>32</v>
       </c>
@@ -18547,7 +18546,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1">
+    <row r="639" spans="1:6">
       <c r="A639" t="s">
         <v>36</v>
       </c>
@@ -18562,7 +18561,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1">
+    <row r="640" spans="1:6">
       <c r="A640" t="s">
         <v>38</v>
       </c>
@@ -18577,7 +18576,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="641" spans="1:6" hidden="1">
+    <row r="641" spans="1:6">
       <c r="A641" t="s">
         <v>40</v>
       </c>
@@ -18592,7 +18591,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1">
+    <row r="642" spans="1:6">
       <c r="A642" t="s">
         <v>42</v>
       </c>
@@ -18607,7 +18606,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1">
+    <row r="643" spans="1:6">
       <c r="A643" t="s">
         <v>44</v>
       </c>
@@ -18622,7 +18621,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1">
+    <row r="644" spans="1:6">
       <c r="A644" t="s">
         <v>46</v>
       </c>
@@ -18637,7 +18636,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1">
+    <row r="645" spans="1:6">
       <c r="A645" t="s">
         <v>48</v>
       </c>
@@ -18652,7 +18651,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1">
+    <row r="646" spans="1:6">
       <c r="A646" t="s">
         <v>50</v>
       </c>
@@ -18667,7 +18666,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1">
+    <row r="647" spans="1:6">
       <c r="A647" t="s">
         <v>52</v>
       </c>
@@ -18682,7 +18681,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1">
+    <row r="648" spans="1:6">
       <c r="A648" t="s">
         <v>54</v>
       </c>
@@ -18697,7 +18696,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="649" spans="1:6" hidden="1">
+    <row r="649" spans="1:6">
       <c r="A649" t="s">
         <v>82</v>
       </c>
@@ -18712,7 +18711,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="650" spans="1:6" hidden="1">
+    <row r="650" spans="1:6">
       <c r="A650" t="s">
         <v>84</v>
       </c>
@@ -18727,7 +18726,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1">
+    <row r="651" spans="1:6">
       <c r="A651" t="s">
         <v>86</v>
       </c>
@@ -18742,7 +18741,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="652" spans="1:6" hidden="1">
+    <row r="652" spans="1:6">
       <c r="A652" t="s">
         <v>56</v>
       </c>
@@ -18757,7 +18756,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="653" spans="1:6" hidden="1">
+    <row r="653" spans="1:6">
       <c r="A653" t="s">
         <v>58</v>
       </c>
@@ -18772,7 +18771,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1">
+    <row r="654" spans="1:6">
       <c r="A654" t="s">
         <v>60</v>
       </c>
@@ -18787,7 +18786,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="655" spans="1:6" hidden="1">
+    <row r="655" spans="1:6">
       <c r="A655" t="s">
         <v>62</v>
       </c>
@@ -18802,7 +18801,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1">
+    <row r="656" spans="1:6">
       <c r="A656" t="s">
         <v>64</v>
       </c>
@@ -18817,7 +18816,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="657" spans="1:6" hidden="1">
+    <row r="657" spans="1:6">
       <c r="A657" t="s">
         <v>66</v>
       </c>
@@ -18832,7 +18831,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1">
+    <row r="658" spans="1:6">
       <c r="A658" t="s">
         <v>68</v>
       </c>
@@ -18847,7 +18846,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="659" spans="1:6" hidden="1">
+    <row r="659" spans="1:6">
       <c r="A659" t="s">
         <v>70</v>
       </c>
@@ -18862,7 +18861,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="660" spans="1:6" hidden="1">
+    <row r="660" spans="1:6">
       <c r="A660" t="s">
         <v>72</v>
       </c>
@@ -18877,7 +18876,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="661" spans="1:6" hidden="1">
+    <row r="661" spans="1:6">
       <c r="A661" t="s">
         <v>74</v>
       </c>
@@ -18892,7 +18891,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="662" spans="1:6" hidden="1">
+    <row r="662" spans="1:6">
       <c r="A662" t="s">
         <v>76</v>
       </c>
@@ -18907,7 +18906,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="663" spans="1:6" hidden="1">
+    <row r="663" spans="1:6">
       <c r="A663" t="s">
         <v>78</v>
       </c>
@@ -18922,7 +18921,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="664" spans="1:6" hidden="1">
+    <row r="664" spans="1:6">
       <c r="A664" t="s">
         <v>80</v>
       </c>
@@ -18937,7 +18936,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="665" spans="1:6" hidden="1">
+    <row r="665" spans="1:6">
       <c r="A665" t="s">
         <v>88</v>
       </c>
@@ -18952,7 +18951,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1">
+    <row r="666" spans="1:6">
       <c r="A666" t="s">
         <v>90</v>
       </c>
@@ -18967,7 +18966,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1">
+    <row r="667" spans="1:6">
       <c r="A667" t="s">
         <v>92</v>
       </c>
@@ -18982,7 +18981,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="668" spans="1:6" hidden="1">
+    <row r="668" spans="1:6">
       <c r="A668" t="s">
         <v>94</v>
       </c>
@@ -18997,7 +18996,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="669" spans="1:6" hidden="1">
+    <row r="669" spans="1:6">
       <c r="A669" t="s">
         <v>96</v>
       </c>
@@ -19012,7 +19011,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="670" spans="1:6" hidden="1">
+    <row r="670" spans="1:6">
       <c r="A670" t="s">
         <v>98</v>
       </c>
@@ -19027,7 +19026,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="671" spans="1:6" hidden="1">
+    <row r="671" spans="1:6">
       <c r="A671" t="s">
         <v>100</v>
       </c>
@@ -19042,7 +19041,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="672" spans="1:6" hidden="1">
+    <row r="672" spans="1:6">
       <c r="A672" t="s">
         <v>102</v>
       </c>
@@ -19057,7 +19056,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1">
+    <row r="673" spans="1:6">
       <c r="A673" t="s">
         <v>104</v>
       </c>
@@ -19072,7 +19071,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1">
+    <row r="674" spans="1:6">
       <c r="A674" t="s">
         <v>324</v>
       </c>
@@ -19087,7 +19086,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="675" spans="1:6" hidden="1">
+    <row r="675" spans="1:6">
       <c r="A675" t="s">
         <v>106</v>
       </c>
@@ -19102,7 +19101,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="676" spans="1:6" hidden="1">
+    <row r="676" spans="1:6">
       <c r="A676" t="s">
         <v>108</v>
       </c>
@@ -19117,7 +19116,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="677" spans="1:6" hidden="1">
+    <row r="677" spans="1:6">
       <c r="A677" t="s">
         <v>110</v>
       </c>
@@ -19132,7 +19131,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="678" spans="1:6" hidden="1">
+    <row r="678" spans="1:6">
       <c r="A678" t="s">
         <v>112</v>
       </c>
@@ -19147,7 +19146,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="679" spans="1:6" hidden="1">
+    <row r="679" spans="1:6">
       <c r="A679" t="s">
         <v>124</v>
       </c>
@@ -19162,7 +19161,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="680" spans="1:6" hidden="1">
+    <row r="680" spans="1:6">
       <c r="A680" t="s">
         <v>126</v>
       </c>
@@ -19177,7 +19176,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1">
+    <row r="681" spans="1:6">
       <c r="A681" t="s">
         <v>128</v>
       </c>
@@ -19192,7 +19191,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="682" spans="1:6" hidden="1">
+    <row r="682" spans="1:6">
       <c r="A682" t="s">
         <v>130</v>
       </c>
@@ -19207,7 +19206,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1">
+    <row r="683" spans="1:6">
       <c r="A683" t="s">
         <v>132</v>
       </c>
@@ -19222,7 +19221,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1">
+    <row r="684" spans="1:6">
       <c r="A684" t="s">
         <v>134</v>
       </c>
@@ -19237,7 +19236,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="685" spans="1:6" hidden="1">
+    <row r="685" spans="1:6">
       <c r="A685" t="s">
         <v>406</v>
       </c>
@@ -19252,7 +19251,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="686" spans="1:6" hidden="1">
+    <row r="686" spans="1:6">
       <c r="A686" t="s">
         <v>408</v>
       </c>
@@ -19267,7 +19266,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="687" spans="1:6" hidden="1">
+    <row r="687" spans="1:6">
       <c r="A687" t="s">
         <v>410</v>
       </c>
@@ -19282,7 +19281,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1">
+    <row r="688" spans="1:6">
       <c r="A688" t="s">
         <v>412</v>
       </c>
@@ -19297,7 +19296,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="689" spans="1:6" hidden="1">
+    <row r="689" spans="1:6">
       <c r="A689" t="s">
         <v>414</v>
       </c>
@@ -19312,7 +19311,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="690" spans="1:6" hidden="1">
+    <row r="690" spans="1:6">
       <c r="A690" t="s">
         <v>416</v>
       </c>
@@ -19327,7 +19326,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="691" spans="1:6" hidden="1">
+    <row r="691" spans="1:6">
       <c r="A691" t="s">
         <v>326</v>
       </c>
@@ -19342,7 +19341,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="692" spans="1:6" hidden="1">
+    <row r="692" spans="1:6">
       <c r="A692" t="s">
         <v>328</v>
       </c>
@@ -19357,7 +19356,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="693" spans="1:6" hidden="1">
+    <row r="693" spans="1:6">
       <c r="A693" t="s">
         <v>330</v>
       </c>
@@ -19372,7 +19371,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1">
+    <row r="694" spans="1:6">
       <c r="A694" t="s">
         <v>610</v>
       </c>
@@ -19387,7 +19386,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="695" spans="1:6" hidden="1">
+    <row r="695" spans="1:6">
       <c r="A695" t="s">
         <v>612</v>
       </c>
@@ -19402,7 +19401,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="696" spans="1:6" hidden="1">
+    <row r="696" spans="1:6">
       <c r="A696" t="s">
         <v>614</v>
       </c>
@@ -19417,7 +19416,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="697" spans="1:6" hidden="1">
+    <row r="697" spans="1:6">
       <c r="A697" t="s">
         <v>616</v>
       </c>
@@ -19432,7 +19431,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="698" spans="1:6" hidden="1">
+    <row r="698" spans="1:6">
       <c r="A698" t="s">
         <v>618</v>
       </c>
@@ -19447,7 +19446,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1">
+    <row r="699" spans="1:6">
       <c r="A699" t="s">
         <v>620</v>
       </c>
@@ -19462,7 +19461,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1">
+    <row r="700" spans="1:6">
       <c r="A700" t="s">
         <v>592</v>
       </c>
@@ -19477,7 +19476,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="701" spans="1:6" hidden="1">
+    <row r="701" spans="1:6">
       <c r="A701" t="s">
         <v>594</v>
       </c>
@@ -19492,7 +19491,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="702" spans="1:6" hidden="1">
+    <row r="702" spans="1:6">
       <c r="A702" t="s">
         <v>596</v>
       </c>
@@ -19507,7 +19506,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="703" spans="1:6" hidden="1">
+    <row r="703" spans="1:6">
       <c r="A703" t="s">
         <v>598</v>
       </c>
@@ -19522,7 +19521,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="704" spans="1:6" hidden="1">
+    <row r="704" spans="1:6">
       <c r="A704" t="s">
         <v>600</v>
       </c>
@@ -19537,7 +19536,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="705" spans="1:6" hidden="1">
+    <row r="705" spans="1:6">
       <c r="A705" t="s">
         <v>602</v>
       </c>
@@ -19552,7 +19551,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="706" spans="1:6" hidden="1">
+    <row r="706" spans="1:6">
       <c r="A706" t="s">
         <v>604</v>
       </c>
@@ -19567,7 +19566,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="707" spans="1:6" hidden="1">
+    <row r="707" spans="1:6">
       <c r="A707" t="s">
         <v>606</v>
       </c>
@@ -19582,7 +19581,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="708" spans="1:6" hidden="1">
+    <row r="708" spans="1:6">
       <c r="A708" t="s">
         <v>608</v>
       </c>
@@ -19597,7 +19596,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="709" spans="1:6" hidden="1">
+    <row r="709" spans="1:6">
       <c r="A709" t="s">
         <v>136</v>
       </c>
@@ -19612,7 +19611,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="710" spans="1:6" hidden="1">
+    <row r="710" spans="1:6">
       <c r="A710" t="s">
         <v>138</v>
       </c>
@@ -19627,7 +19626,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="711" spans="1:6" hidden="1">
+    <row r="711" spans="1:6">
       <c r="A711" t="s">
         <v>140</v>
       </c>
@@ -19642,7 +19641,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="712" spans="1:6" hidden="1">
+    <row r="712" spans="1:6">
       <c r="A712" t="s">
         <v>142</v>
       </c>
@@ -19657,7 +19656,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="713" spans="1:6" hidden="1">
+    <row r="713" spans="1:6">
       <c r="A713" t="s">
         <v>144</v>
       </c>
@@ -19672,7 +19671,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="714" spans="1:6" hidden="1">
+    <row r="714" spans="1:6">
       <c r="A714" t="s">
         <v>146</v>
       </c>
@@ -19687,7 +19686,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="715" spans="1:6" hidden="1">
+    <row r="715" spans="1:6">
       <c r="A715" t="s">
         <v>148</v>
       </c>
@@ -19702,7 +19701,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="716" spans="1:6" hidden="1">
+    <row r="716" spans="1:6">
       <c r="A716" t="s">
         <v>150</v>
       </c>
@@ -19717,7 +19716,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="717" spans="1:6" hidden="1">
+    <row r="717" spans="1:6">
       <c r="A717" t="s">
         <v>152</v>
       </c>
@@ -19732,7 +19731,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="718" spans="1:6" hidden="1">
+    <row r="718" spans="1:6">
       <c r="A718" t="s">
         <v>154</v>
       </c>
@@ -19747,7 +19746,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="719" spans="1:6" hidden="1">
+    <row r="719" spans="1:6">
       <c r="A719" t="s">
         <v>156</v>
       </c>
@@ -19762,7 +19761,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="720" spans="1:6" hidden="1">
+    <row r="720" spans="1:6">
       <c r="A720" t="s">
         <v>158</v>
       </c>
@@ -19777,7 +19776,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="721" spans="1:6" hidden="1">
+    <row r="721" spans="1:6">
       <c r="A721" t="s">
         <v>160</v>
       </c>
@@ -19792,7 +19791,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="722" spans="1:6" hidden="1">
+    <row r="722" spans="1:6">
       <c r="A722" t="s">
         <v>174</v>
       </c>
@@ -19807,7 +19806,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="723" spans="1:6" hidden="1">
+    <row r="723" spans="1:6">
       <c r="A723" t="s">
         <v>176</v>
       </c>
@@ -19822,7 +19821,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="724" spans="1:6" hidden="1">
+    <row r="724" spans="1:6">
       <c r="A724" t="s">
         <v>178</v>
       </c>
@@ -19837,7 +19836,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="725" spans="1:6" hidden="1">
+    <row r="725" spans="1:6">
       <c r="A725" t="s">
         <v>578</v>
       </c>
@@ -19852,7 +19851,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="726" spans="1:6" hidden="1">
+    <row r="726" spans="1:6">
       <c r="A726" t="s">
         <v>580</v>
       </c>
@@ -19867,7 +19866,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="727" spans="1:6" hidden="1">
+    <row r="727" spans="1:6">
       <c r="A727" t="s">
         <v>582</v>
       </c>
@@ -19882,7 +19881,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="728" spans="1:6" hidden="1">
+    <row r="728" spans="1:6">
       <c r="A728" t="s">
         <v>114</v>
       </c>
@@ -19897,7 +19896,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="729" spans="1:6" hidden="1">
+    <row r="729" spans="1:6">
       <c r="A729" t="s">
         <v>116</v>
       </c>
@@ -19912,7 +19911,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="730" spans="1:6" hidden="1">
+    <row r="730" spans="1:6">
       <c r="A730" t="s">
         <v>118</v>
       </c>
@@ -19927,7 +19926,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="731" spans="1:6" hidden="1">
+    <row r="731" spans="1:6">
       <c r="A731" t="s">
         <v>120</v>
       </c>
@@ -19942,7 +19941,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="732" spans="1:6" hidden="1">
+    <row r="732" spans="1:6">
       <c r="A732" t="s">
         <v>122</v>
       </c>
@@ -19957,7 +19956,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="733" spans="1:6" hidden="1">
+    <row r="733" spans="1:6">
       <c r="A733" t="s">
         <v>188</v>
       </c>
@@ -19972,7 +19971,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="734" spans="1:6" hidden="1">
+    <row r="734" spans="1:6">
       <c r="A734" t="s">
         <v>190</v>
       </c>
@@ -19987,7 +19986,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="735" spans="1:6" hidden="1">
+    <row r="735" spans="1:6">
       <c r="A735" t="s">
         <v>192</v>
       </c>
@@ -20002,7 +20001,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="736" spans="1:6" hidden="1">
+    <row r="736" spans="1:6">
       <c r="A736" t="s">
         <v>194</v>
       </c>
@@ -20017,7 +20016,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="737" spans="1:6" hidden="1">
+    <row r="737" spans="1:6">
       <c r="A737" t="s">
         <v>196</v>
       </c>
@@ -20032,7 +20031,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="738" spans="1:6" hidden="1">
+    <row r="738" spans="1:6">
       <c r="A738" t="s">
         <v>198</v>
       </c>
@@ -20047,7 +20046,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="739" spans="1:6" hidden="1">
+    <row r="739" spans="1:6">
       <c r="A739" t="s">
         <v>200</v>
       </c>
@@ -20062,7 +20061,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="740" spans="1:6" hidden="1">
+    <row r="740" spans="1:6">
       <c r="A740" t="s">
         <v>202</v>
       </c>
@@ -20077,7 +20076,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="741" spans="1:6" hidden="1">
+    <row r="741" spans="1:6">
       <c r="A741" t="s">
         <v>206</v>
       </c>
@@ -20092,7 +20091,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="742" spans="1:6" hidden="1">
+    <row r="742" spans="1:6">
       <c r="A742" t="s">
         <v>208</v>
       </c>
@@ -20107,7 +20106,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="743" spans="1:6" hidden="1">
+    <row r="743" spans="1:6">
       <c r="A743" t="s">
         <v>210</v>
       </c>
@@ -20122,7 +20121,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="744" spans="1:6" hidden="1">
+    <row r="744" spans="1:6">
       <c r="A744" t="s">
         <v>212</v>
       </c>
@@ -20137,7 +20136,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="745" spans="1:6" hidden="1">
+    <row r="745" spans="1:6">
       <c r="A745" t="s">
         <v>214</v>
       </c>
@@ -20152,7 +20151,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="746" spans="1:6" hidden="1">
+    <row r="746" spans="1:6">
       <c r="A746" t="s">
         <v>216</v>
       </c>
@@ -20167,7 +20166,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="747" spans="1:6" hidden="1">
+    <row r="747" spans="1:6">
       <c r="A747" t="s">
         <v>218</v>
       </c>
@@ -20182,7 +20181,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="748" spans="1:6" hidden="1">
+    <row r="748" spans="1:6">
       <c r="A748" t="s">
         <v>220</v>
       </c>
@@ -20197,7 +20196,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="749" spans="1:6" hidden="1">
+    <row r="749" spans="1:6">
       <c r="A749" t="s">
         <v>222</v>
       </c>
@@ -20212,7 +20211,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="750" spans="1:6" hidden="1">
+    <row r="750" spans="1:6">
       <c r="A750" t="s">
         <v>204</v>
       </c>
@@ -20227,7 +20226,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="751" spans="1:6" hidden="1">
+    <row r="751" spans="1:6">
       <c r="A751" t="s">
         <v>224</v>
       </c>
@@ -20242,7 +20241,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="752" spans="1:6" hidden="1">
+    <row r="752" spans="1:6">
       <c r="A752" t="s">
         <v>226</v>
       </c>
@@ -20257,7 +20256,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="753" spans="1:6" hidden="1">
+    <row r="753" spans="1:6">
       <c r="A753" t="s">
         <v>228</v>
       </c>
@@ -20272,7 +20271,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="754" spans="1:6" hidden="1">
+    <row r="754" spans="1:6">
       <c r="A754" t="s">
         <v>230</v>
       </c>
@@ -20287,7 +20286,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="755" spans="1:6" hidden="1">
+    <row r="755" spans="1:6">
       <c r="A755" t="s">
         <v>232</v>
       </c>
@@ -20302,7 +20301,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="756" spans="1:6" hidden="1">
+    <row r="756" spans="1:6">
       <c r="A756" t="s">
         <v>234</v>
       </c>
@@ -20317,7 +20316,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="757" spans="1:6" hidden="1">
+    <row r="757" spans="1:6">
       <c r="A757" t="s">
         <v>236</v>
       </c>
@@ -20332,7 +20331,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="758" spans="1:6" hidden="1">
+    <row r="758" spans="1:6">
       <c r="A758" t="s">
         <v>238</v>
       </c>
@@ -20347,7 +20346,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="759" spans="1:6" hidden="1">
+    <row r="759" spans="1:6">
       <c r="A759" t="s">
         <v>240</v>
       </c>
@@ -20362,7 +20361,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="760" spans="1:6" hidden="1">
+    <row r="760" spans="1:6">
       <c r="A760" t="s">
         <v>242</v>
       </c>
@@ -20377,7 +20376,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="761" spans="1:6" hidden="1">
+    <row r="761" spans="1:6">
       <c r="A761" t="s">
         <v>244</v>
       </c>
@@ -20392,7 +20391,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="762" spans="1:6" hidden="1">
+    <row r="762" spans="1:6">
       <c r="A762" t="s">
         <v>246</v>
       </c>
@@ -20407,7 +20406,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="763" spans="1:6" hidden="1">
+    <row r="763" spans="1:6">
       <c r="A763" t="s">
         <v>274</v>
       </c>
@@ -20422,7 +20421,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="764" spans="1:6" hidden="1">
+    <row r="764" spans="1:6">
       <c r="A764" t="s">
         <v>276</v>
       </c>
@@ -20437,7 +20436,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="765" spans="1:6" hidden="1">
+    <row r="765" spans="1:6">
       <c r="A765" t="s">
         <v>278</v>
       </c>
@@ -20452,7 +20451,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="766" spans="1:6" hidden="1">
+    <row r="766" spans="1:6">
       <c r="A766" t="s">
         <v>280</v>
       </c>
@@ -20467,7 +20466,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="767" spans="1:6" hidden="1">
+    <row r="767" spans="1:6">
       <c r="A767" t="s">
         <v>282</v>
       </c>
@@ -20482,7 +20481,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="768" spans="1:6" hidden="1">
+    <row r="768" spans="1:6">
       <c r="A768" t="s">
         <v>284</v>
       </c>
@@ -20497,7 +20496,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="769" spans="1:6" hidden="1">
+    <row r="769" spans="1:6">
       <c r="A769" t="s">
         <v>286</v>
       </c>
@@ -20512,7 +20511,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="770" spans="1:6" hidden="1">
+    <row r="770" spans="1:6">
       <c r="A770" t="s">
         <v>288</v>
       </c>
@@ -20527,7 +20526,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="771" spans="1:6" hidden="1">
+    <row r="771" spans="1:6">
       <c r="A771" t="s">
         <v>290</v>
       </c>
@@ -20542,7 +20541,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="772" spans="1:6" hidden="1">
+    <row r="772" spans="1:6">
       <c r="A772" t="s">
         <v>292</v>
       </c>
@@ -20557,7 +20556,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="773" spans="1:6" hidden="1">
+    <row r="773" spans="1:6">
       <c r="A773" t="s">
         <v>294</v>
       </c>
@@ -20572,7 +20571,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="774" spans="1:6" hidden="1">
+    <row r="774" spans="1:6">
       <c r="A774" t="s">
         <v>296</v>
       </c>
@@ -20587,7 +20586,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="775" spans="1:6" hidden="1">
+    <row r="775" spans="1:6">
       <c r="A775" t="s">
         <v>298</v>
       </c>
@@ -20602,7 +20601,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="776" spans="1:6" hidden="1">
+    <row r="776" spans="1:6">
       <c r="A776" t="s">
         <v>300</v>
       </c>
@@ -20617,7 +20616,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="777" spans="1:6" hidden="1">
+    <row r="777" spans="1:6">
       <c r="A777" t="s">
         <v>302</v>
       </c>
@@ -20632,7 +20631,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="778" spans="1:6" hidden="1">
+    <row r="778" spans="1:6">
       <c r="A778" t="s">
         <v>304</v>
       </c>
@@ -20647,7 +20646,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="779" spans="1:6" hidden="1">
+    <row r="779" spans="1:6">
       <c r="A779" t="s">
         <v>306</v>
       </c>
@@ -20662,7 +20661,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="780" spans="1:6" hidden="1">
+    <row r="780" spans="1:6">
       <c r="A780" t="s">
         <v>308</v>
       </c>
@@ -20677,7 +20676,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="781" spans="1:6" hidden="1">
+    <row r="781" spans="1:6">
       <c r="A781" t="s">
         <v>310</v>
       </c>
@@ -20692,7 +20691,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="782" spans="1:6" hidden="1">
+    <row r="782" spans="1:6">
       <c r="A782" t="s">
         <v>312</v>
       </c>
@@ -20707,7 +20706,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="783" spans="1:6" hidden="1">
+    <row r="783" spans="1:6">
       <c r="A783" t="s">
         <v>314</v>
       </c>
@@ -20722,7 +20721,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="784" spans="1:6" hidden="1">
+    <row r="784" spans="1:6">
       <c r="A784" t="s">
         <v>316</v>
       </c>
@@ -20737,7 +20736,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="785" spans="1:6" hidden="1">
+    <row r="785" spans="1:6">
       <c r="A785" t="s">
         <v>318</v>
       </c>
@@ -20752,7 +20751,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="786" spans="1:6" hidden="1">
+    <row r="786" spans="1:6">
       <c r="A786" t="s">
         <v>320</v>
       </c>
@@ -20767,7 +20766,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="787" spans="1:6" hidden="1">
+    <row r="787" spans="1:6">
       <c r="A787" t="s">
         <v>322</v>
       </c>
@@ -20782,7 +20781,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="788" spans="1:6" hidden="1">
+    <row r="788" spans="1:6">
       <c r="A788" t="s">
         <v>248</v>
       </c>
@@ -20797,7 +20796,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="789" spans="1:6" hidden="1">
+    <row r="789" spans="1:6">
       <c r="A789" t="s">
         <v>250</v>
       </c>
@@ -20812,7 +20811,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="790" spans="1:6" hidden="1">
+    <row r="790" spans="1:6">
       <c r="A790" t="s">
         <v>252</v>
       </c>
@@ -20827,7 +20826,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="791" spans="1:6" hidden="1">
+    <row r="791" spans="1:6">
       <c r="A791" t="s">
         <v>254</v>
       </c>
@@ -20842,7 +20841,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="792" spans="1:6" hidden="1">
+    <row r="792" spans="1:6">
       <c r="A792" t="s">
         <v>256</v>
       </c>
@@ -20857,7 +20856,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="793" spans="1:6" hidden="1">
+    <row r="793" spans="1:6">
       <c r="A793" t="s">
         <v>258</v>
       </c>
@@ -20872,7 +20871,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="794" spans="1:6" hidden="1">
+    <row r="794" spans="1:6">
       <c r="A794" t="s">
         <v>260</v>
       </c>
@@ -20887,7 +20886,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="795" spans="1:6" hidden="1">
+    <row r="795" spans="1:6">
       <c r="A795" t="s">
         <v>262</v>
       </c>
@@ -20902,7 +20901,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="796" spans="1:6" hidden="1">
+    <row r="796" spans="1:6">
       <c r="A796" t="s">
         <v>264</v>
       </c>
@@ -20917,7 +20916,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="797" spans="1:6" hidden="1">
+    <row r="797" spans="1:6">
       <c r="A797" t="s">
         <v>266</v>
       </c>
@@ -20932,7 +20931,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="798" spans="1:6" hidden="1">
+    <row r="798" spans="1:6">
       <c r="A798" t="s">
         <v>268</v>
       </c>
@@ -20947,7 +20946,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="799" spans="1:6" hidden="1">
+    <row r="799" spans="1:6">
       <c r="A799" t="s">
         <v>270</v>
       </c>
@@ -20962,7 +20961,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="800" spans="1:6" hidden="1">
+    <row r="800" spans="1:6">
       <c r="A800" t="s">
         <v>272</v>
       </c>
@@ -20977,7 +20976,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="801" spans="1:6" hidden="1">
+    <row r="801" spans="1:6">
       <c r="A801" t="s">
         <v>542</v>
       </c>
@@ -20992,7 +20991,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="802" spans="1:6" hidden="1">
+    <row r="802" spans="1:6">
       <c r="A802" t="s">
         <v>544</v>
       </c>
@@ -21007,7 +21006,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="803" spans="1:6" hidden="1">
+    <row r="803" spans="1:6">
       <c r="A803" t="s">
         <v>546</v>
       </c>
@@ -21022,7 +21021,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="804" spans="1:6" hidden="1">
+    <row r="804" spans="1:6">
       <c r="A804" t="s">
         <v>344</v>
       </c>
@@ -21037,7 +21036,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1">
+    <row r="805" spans="1:6">
       <c r="A805" t="s">
         <v>346</v>
       </c>
@@ -21052,7 +21051,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1">
+    <row r="806" spans="1:6">
       <c r="A806" t="s">
         <v>348</v>
       </c>
@@ -21067,7 +21066,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="807" spans="1:6" hidden="1">
+    <row r="807" spans="1:6">
       <c r="A807" t="s">
         <v>350</v>
       </c>
@@ -21082,7 +21081,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="808" spans="1:6" hidden="1">
+    <row r="808" spans="1:6">
       <c r="A808" t="s">
         <v>352</v>
       </c>
@@ -21097,7 +21096,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="809" spans="1:6" hidden="1">
+    <row r="809" spans="1:6">
       <c r="A809" t="s">
         <v>354</v>
       </c>
@@ -21112,7 +21111,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="810" spans="1:6" hidden="1">
+    <row r="810" spans="1:6">
       <c r="A810" t="s">
         <v>356</v>
       </c>
@@ -21127,7 +21126,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="811" spans="1:6" hidden="1">
+    <row r="811" spans="1:6">
       <c r="A811" t="s">
         <v>358</v>
       </c>
@@ -21142,7 +21141,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="812" spans="1:6" hidden="1">
+    <row r="812" spans="1:6">
       <c r="A812" t="s">
         <v>360</v>
       </c>
@@ -21157,7 +21156,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="813" spans="1:6" hidden="1">
+    <row r="813" spans="1:6">
       <c r="A813" t="s">
         <v>362</v>
       </c>
@@ -21172,7 +21171,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="814" spans="1:6" hidden="1">
+    <row r="814" spans="1:6">
       <c r="A814" t="s">
         <v>364</v>
       </c>
@@ -21187,7 +21186,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="815" spans="1:6" hidden="1">
+    <row r="815" spans="1:6">
       <c r="A815" t="s">
         <v>366</v>
       </c>
@@ -21202,7 +21201,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="816" spans="1:6" hidden="1">
+    <row r="816" spans="1:6">
       <c r="A816" t="s">
         <v>368</v>
       </c>
@@ -21217,7 +21216,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="817" spans="1:6" hidden="1">
+    <row r="817" spans="1:6">
       <c r="A817" t="s">
         <v>370</v>
       </c>
@@ -21232,7 +21231,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="818" spans="1:6" hidden="1">
+    <row r="818" spans="1:6">
       <c r="A818" t="s">
         <v>384</v>
       </c>
@@ -21247,7 +21246,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="819" spans="1:6" hidden="1">
+    <row r="819" spans="1:6">
       <c r="A819" t="s">
         <v>382</v>
       </c>
@@ -21262,7 +21261,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="820" spans="1:6" hidden="1">
+    <row r="820" spans="1:6">
       <c r="A820" t="s">
         <v>388</v>
       </c>
@@ -21277,7 +21276,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="821" spans="1:6" hidden="1">
+    <row r="821" spans="1:6">
       <c r="A821" t="s">
         <v>372</v>
       </c>
@@ -21292,7 +21291,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="822" spans="1:6" hidden="1">
+    <row r="822" spans="1:6">
       <c r="A822" t="s">
         <v>374</v>
       </c>
@@ -21307,7 +21306,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="823" spans="1:6" hidden="1">
+    <row r="823" spans="1:6">
       <c r="A823" t="s">
         <v>376</v>
       </c>
@@ -21322,7 +21321,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="824" spans="1:6" hidden="1">
+    <row r="824" spans="1:6">
       <c r="A824" t="s">
         <v>386</v>
       </c>
@@ -21340,7 +21339,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="825" spans="1:6" hidden="1">
+    <row r="825" spans="1:6">
       <c r="A825" t="s">
         <v>380</v>
       </c>
@@ -21355,7 +21354,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="826" spans="1:6" hidden="1">
+    <row r="826" spans="1:6">
       <c r="A826" t="s">
         <v>378</v>
       </c>
@@ -21370,7 +21369,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="827" spans="1:6" hidden="1">
+    <row r="827" spans="1:6">
       <c r="A827" t="s">
         <v>396</v>
       </c>
@@ -21385,7 +21384,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="828" spans="1:6" hidden="1">
+    <row r="828" spans="1:6">
       <c r="A828" t="s">
         <v>398</v>
       </c>
@@ -21400,7 +21399,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="829" spans="1:6" hidden="1">
+    <row r="829" spans="1:6">
       <c r="A829" t="s">
         <v>400</v>
       </c>
@@ -21415,7 +21414,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="830" spans="1:6" hidden="1">
+    <row r="830" spans="1:6">
       <c r="A830" t="s">
         <v>402</v>
       </c>
@@ -21430,7 +21429,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="831" spans="1:6" hidden="1">
+    <row r="831" spans="1:6">
       <c r="A831" t="s">
         <v>404</v>
       </c>
@@ -21445,7 +21444,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="832" spans="1:6" hidden="1">
+    <row r="832" spans="1:6">
       <c r="A832" t="s">
         <v>548</v>
       </c>
@@ -21460,7 +21459,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="833" spans="1:6" hidden="1">
+    <row r="833" spans="1:6">
       <c r="A833" t="s">
         <v>418</v>
       </c>
@@ -21475,7 +21474,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="834" spans="1:6" hidden="1">
+    <row r="834" spans="1:6">
       <c r="A834" t="s">
         <v>420</v>
       </c>
@@ -21490,7 +21489,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="835" spans="1:6" hidden="1">
+    <row r="835" spans="1:6">
       <c r="A835" t="s">
         <v>422</v>
       </c>
@@ -21505,7 +21504,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="836" spans="1:6" hidden="1">
+    <row r="836" spans="1:6">
       <c r="A836" t="s">
         <v>424</v>
       </c>
@@ -21520,7 +21519,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="837" spans="1:6" hidden="1">
+    <row r="837" spans="1:6">
       <c r="A837" t="s">
         <v>426</v>
       </c>
@@ -21535,7 +21534,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="838" spans="1:6" hidden="1">
+    <row r="838" spans="1:6">
       <c r="A838" t="s">
         <v>428</v>
       </c>
@@ -21550,7 +21549,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="839" spans="1:6" hidden="1">
+    <row r="839" spans="1:6">
       <c r="A839" t="s">
         <v>430</v>
       </c>
@@ -21565,7 +21564,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="840" spans="1:6" hidden="1">
+    <row r="840" spans="1:6">
       <c r="A840" t="s">
         <v>432</v>
       </c>
@@ -21580,7 +21579,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="841" spans="1:6" hidden="1">
+    <row r="841" spans="1:6">
       <c r="A841" t="s">
         <v>434</v>
       </c>
@@ -21595,7 +21594,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="842" spans="1:6" hidden="1">
+    <row r="842" spans="1:6">
       <c r="A842" t="s">
         <v>436</v>
       </c>
@@ -21610,7 +21609,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="843" spans="1:6" hidden="1">
+    <row r="843" spans="1:6">
       <c r="A843" t="s">
         <v>438</v>
       </c>
@@ -21625,7 +21624,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="844" spans="1:6" hidden="1">
+    <row r="844" spans="1:6">
       <c r="A844" t="s">
         <v>440</v>
       </c>
@@ -21640,7 +21639,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="845" spans="1:6" hidden="1">
+    <row r="845" spans="1:6">
       <c r="A845" t="s">
         <v>442</v>
       </c>
@@ -21655,7 +21654,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="846" spans="1:6" hidden="1">
+    <row r="846" spans="1:6">
       <c r="A846" t="s">
         <v>534</v>
       </c>
@@ -21670,7 +21669,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="847" spans="1:6" hidden="1">
+    <row r="847" spans="1:6">
       <c r="A847" t="s">
         <v>536</v>
       </c>
@@ -21685,7 +21684,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="848" spans="1:6" hidden="1">
+    <row r="848" spans="1:6">
       <c r="A848" t="s">
         <v>538</v>
       </c>
@@ -21700,7 +21699,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="849" spans="1:6" hidden="1">
+    <row r="849" spans="1:6">
       <c r="A849" t="s">
         <v>540</v>
       </c>
@@ -21715,7 +21714,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="850" spans="1:6" hidden="1">
+    <row r="850" spans="1:6">
       <c r="A850" t="s">
         <v>584</v>
       </c>
@@ -21730,7 +21729,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="851" spans="1:6" hidden="1">
+    <row r="851" spans="1:6">
       <c r="A851" t="s">
         <v>586</v>
       </c>
@@ -21745,7 +21744,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="852" spans="1:6" hidden="1">
+    <row r="852" spans="1:6">
       <c r="A852" t="s">
         <v>588</v>
       </c>
@@ -21760,7 +21759,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="853" spans="1:6" hidden="1">
+    <row r="853" spans="1:6">
       <c r="A853" t="s">
         <v>590</v>
       </c>
@@ -21775,7 +21774,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="854" spans="1:6" hidden="1">
+    <row r="854" spans="1:6">
       <c r="A854" t="s">
         <v>632</v>
       </c>
@@ -21790,7 +21789,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="855" spans="1:6" hidden="1">
+    <row r="855" spans="1:6">
       <c r="A855" t="s">
         <v>634</v>
       </c>
@@ -21805,7 +21804,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="856" spans="1:6" hidden="1">
+    <row r="856" spans="1:6">
       <c r="A856" t="s">
         <v>636</v>
       </c>
@@ -21820,7 +21819,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="857" spans="1:6" hidden="1">
+    <row r="857" spans="1:6">
       <c r="A857" t="s">
         <v>638</v>
       </c>
@@ -21835,7 +21834,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="858" spans="1:6" hidden="1">
+    <row r="858" spans="1:6">
       <c r="A858" t="s">
         <v>622</v>
       </c>
@@ -21850,7 +21849,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="859" spans="1:6" hidden="1">
+    <row r="859" spans="1:6">
       <c r="A859" t="s">
         <v>624</v>
       </c>
@@ -21865,7 +21864,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="860" spans="1:6" hidden="1">
+    <row r="860" spans="1:6">
       <c r="A860" t="s">
         <v>626</v>
       </c>
@@ -21880,7 +21879,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="861" spans="1:6" hidden="1">
+    <row r="861" spans="1:6">
       <c r="A861" t="s">
         <v>628</v>
       </c>
@@ -21895,7 +21894,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="862" spans="1:6" hidden="1">
+    <row r="862" spans="1:6">
       <c r="A862" t="s">
         <v>630</v>
       </c>
@@ -21910,7 +21909,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="863" spans="1:6" hidden="1">
+    <row r="863" spans="1:6">
       <c r="A863" t="s">
         <v>390</v>
       </c>
@@ -21925,7 +21924,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="864" spans="1:6" hidden="1">
+    <row r="864" spans="1:6">
       <c r="A864" t="s">
         <v>392</v>
       </c>
@@ -21940,7 +21939,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="865" spans="1:6" hidden="1">
+    <row r="865" spans="1:6">
       <c r="A865" t="s">
         <v>394</v>
       </c>
@@ -21955,7 +21954,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="866" spans="1:6" hidden="1">
+    <row r="866" spans="1:6">
       <c r="A866" t="s">
         <v>162</v>
       </c>
@@ -21970,7 +21969,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="867" spans="1:6" hidden="1">
+    <row r="867" spans="1:6">
       <c r="A867" t="s">
         <v>164</v>
       </c>
@@ -21985,7 +21984,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="868" spans="1:6" hidden="1">
+    <row r="868" spans="1:6">
       <c r="A868" t="s">
         <v>166</v>
       </c>
@@ -22000,7 +21999,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="869" spans="1:6" hidden="1">
+    <row r="869" spans="1:6">
       <c r="A869" t="s">
         <v>168</v>
       </c>
@@ -22015,7 +22014,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="870" spans="1:6" hidden="1">
+    <row r="870" spans="1:6">
       <c r="A870" t="s">
         <v>170</v>
       </c>
@@ -22030,7 +22029,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="871" spans="1:6" hidden="1">
+    <row r="871" spans="1:6">
       <c r="A871" t="s">
         <v>172</v>
       </c>
@@ -22045,7 +22044,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="872" spans="1:6" hidden="1">
+    <row r="872" spans="1:6">
       <c r="A872" t="s">
         <v>180</v>
       </c>
@@ -22060,7 +22059,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="873" spans="1:6" hidden="1">
+    <row r="873" spans="1:6">
       <c r="A873" t="s">
         <v>182</v>
       </c>
@@ -22075,7 +22074,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="874" spans="1:6" hidden="1">
+    <row r="874" spans="1:6">
       <c r="A874" t="s">
         <v>184</v>
       </c>
@@ -22090,7 +22089,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="875" spans="1:6" hidden="1">
+    <row r="875" spans="1:6">
       <c r="A875" t="s">
         <v>186</v>
       </c>
@@ -22105,7 +22104,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="876" spans="1:6" hidden="1">
+    <row r="876" spans="1:6">
       <c r="A876" t="s">
         <v>496</v>
       </c>
@@ -22120,7 +22119,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="877" spans="1:6" hidden="1">
+    <row r="877" spans="1:6">
       <c r="A877" t="s">
         <v>498</v>
       </c>
@@ -22135,7 +22134,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="878" spans="1:6" hidden="1">
+    <row r="878" spans="1:6">
       <c r="A878" t="s">
         <v>500</v>
       </c>
@@ -22150,7 +22149,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="879" spans="1:6" hidden="1">
+    <row r="879" spans="1:6">
       <c r="A879" t="s">
         <v>502</v>
       </c>
@@ -22165,7 +22164,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="880" spans="1:6" hidden="1">
+    <row r="880" spans="1:6">
       <c r="A880" t="s">
         <v>444</v>
       </c>
@@ -22180,7 +22179,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="881" spans="1:6" hidden="1">
+    <row r="881" spans="1:6">
       <c r="A881" t="s">
         <v>446</v>
       </c>
@@ -22195,7 +22194,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="882" spans="1:6" hidden="1">
+    <row r="882" spans="1:6">
       <c r="A882" t="s">
         <v>448</v>
       </c>
@@ -22210,7 +22209,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="883" spans="1:6" hidden="1">
+    <row r="883" spans="1:6">
       <c r="A883" t="s">
         <v>450</v>
       </c>
@@ -22225,7 +22224,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="884" spans="1:6" hidden="1">
+    <row r="884" spans="1:6">
       <c r="A884" t="s">
         <v>452</v>
       </c>
@@ -22240,7 +22239,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="885" spans="1:6" hidden="1">
+    <row r="885" spans="1:6">
       <c r="A885" t="s">
         <v>454</v>
       </c>
@@ -22255,7 +22254,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="886" spans="1:6" hidden="1">
+    <row r="886" spans="1:6">
       <c r="A886" t="s">
         <v>456</v>
       </c>
@@ -22270,7 +22269,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="887" spans="1:6" hidden="1">
+    <row r="887" spans="1:6">
       <c r="A887" t="s">
         <v>458</v>
       </c>
@@ -22285,7 +22284,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="888" spans="1:6" hidden="1">
+    <row r="888" spans="1:6">
       <c r="A888" t="s">
         <v>460</v>
       </c>
@@ -22300,7 +22299,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="889" spans="1:6" hidden="1">
+    <row r="889" spans="1:6">
       <c r="A889" t="s">
         <v>462</v>
       </c>
@@ -22315,7 +22314,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="890" spans="1:6" hidden="1">
+    <row r="890" spans="1:6">
       <c r="A890" t="s">
         <v>464</v>
       </c>
@@ -22330,7 +22329,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="891" spans="1:6" hidden="1">
+    <row r="891" spans="1:6">
       <c r="A891" t="s">
         <v>512</v>
       </c>
@@ -22345,7 +22344,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="892" spans="1:6" hidden="1">
+    <row r="892" spans="1:6">
       <c r="A892" t="s">
         <v>514</v>
       </c>
@@ -22360,7 +22359,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="893" spans="1:6" hidden="1">
+    <row r="893" spans="1:6">
       <c r="A893" t="s">
         <v>516</v>
       </c>
@@ -22375,7 +22374,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="894" spans="1:6" hidden="1">
+    <row r="894" spans="1:6">
       <c r="A894" t="s">
         <v>518</v>
       </c>
@@ -22390,7 +22389,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="895" spans="1:6" hidden="1">
+    <row r="895" spans="1:6">
       <c r="A895" t="s">
         <v>520</v>
       </c>
@@ -22405,7 +22404,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="896" spans="1:6" hidden="1">
+    <row r="896" spans="1:6">
       <c r="A896" t="s">
         <v>466</v>
       </c>
@@ -22420,7 +22419,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="897" spans="1:6" hidden="1">
+    <row r="897" spans="1:6">
       <c r="A897" t="s">
         <v>468</v>
       </c>
@@ -22435,7 +22434,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="898" spans="1:6" hidden="1">
+    <row r="898" spans="1:6">
       <c r="A898" t="s">
         <v>470</v>
       </c>
@@ -22450,7 +22449,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="899" spans="1:6" hidden="1">
+    <row r="899" spans="1:6">
       <c r="A899" t="s">
         <v>472</v>
       </c>
@@ -22465,7 +22464,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="900" spans="1:6" hidden="1">
+    <row r="900" spans="1:6">
       <c r="A900" t="s">
         <v>474</v>
       </c>
@@ -22480,7 +22479,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="901" spans="1:6" hidden="1">
+    <row r="901" spans="1:6">
       <c r="A901" t="s">
         <v>476</v>
       </c>
@@ -22495,7 +22494,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="902" spans="1:6" hidden="1">
+    <row r="902" spans="1:6">
       <c r="A902" t="s">
         <v>478</v>
       </c>
@@ -22510,7 +22509,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="903" spans="1:6" hidden="1">
+    <row r="903" spans="1:6">
       <c r="A903" t="s">
         <v>522</v>
       </c>
@@ -22525,7 +22524,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="904" spans="1:6" hidden="1">
+    <row r="904" spans="1:6">
       <c r="A904" t="s">
         <v>524</v>
       </c>
@@ -22540,7 +22539,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="905" spans="1:6" hidden="1">
+    <row r="905" spans="1:6">
       <c r="A905" t="s">
         <v>526</v>
       </c>
@@ -22555,7 +22554,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="906" spans="1:6" hidden="1">
+    <row r="906" spans="1:6">
       <c r="A906" t="s">
         <v>528</v>
       </c>
@@ -22570,7 +22569,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="907" spans="1:6" hidden="1">
+    <row r="907" spans="1:6">
       <c r="A907" t="s">
         <v>530</v>
       </c>
@@ -22585,7 +22584,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="908" spans="1:6" hidden="1">
+    <row r="908" spans="1:6">
       <c r="A908" t="s">
         <v>532</v>
       </c>
@@ -22600,7 +22599,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="909" spans="1:6" hidden="1">
+    <row r="909" spans="1:6">
       <c r="A909" t="s">
         <v>504</v>
       </c>
@@ -22615,7 +22614,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="910" spans="1:6" hidden="1">
+    <row r="910" spans="1:6">
       <c r="A910" t="s">
         <v>506</v>
       </c>
@@ -22630,7 +22629,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="911" spans="1:6" hidden="1">
+    <row r="911" spans="1:6">
       <c r="A911" t="s">
         <v>508</v>
       </c>
@@ -22645,7 +22644,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="912" spans="1:6" hidden="1">
+    <row r="912" spans="1:6">
       <c r="A912" t="s">
         <v>510</v>
       </c>
@@ -22660,7 +22659,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="913" spans="1:6" hidden="1">
+    <row r="913" spans="1:6">
       <c r="A913" t="s">
         <v>550</v>
       </c>
@@ -22675,7 +22674,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="914" spans="1:6" hidden="1">
+    <row r="914" spans="1:6">
       <c r="A914" t="s">
         <v>552</v>
       </c>
@@ -22690,7 +22689,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="915" spans="1:6" hidden="1">
+    <row r="915" spans="1:6">
       <c r="A915" t="s">
         <v>554</v>
       </c>
@@ -22705,7 +22704,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="916" spans="1:6" hidden="1">
+    <row r="916" spans="1:6">
       <c r="A916" t="s">
         <v>556</v>
       </c>
@@ -22720,7 +22719,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="917" spans="1:6" hidden="1">
+    <row r="917" spans="1:6">
       <c r="A917" t="s">
         <v>558</v>
       </c>
@@ -22735,7 +22734,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="918" spans="1:6" hidden="1">
+    <row r="918" spans="1:6">
       <c r="A918" t="s">
         <v>560</v>
       </c>
@@ -22750,7 +22749,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="919" spans="1:6" hidden="1">
+    <row r="919" spans="1:6">
       <c r="A919" t="s">
         <v>562</v>
       </c>
@@ -22765,7 +22764,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="920" spans="1:6" hidden="1">
+    <row r="920" spans="1:6">
       <c r="A920" t="s">
         <v>564</v>
       </c>
@@ -22780,7 +22779,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="921" spans="1:6" hidden="1">
+    <row r="921" spans="1:6">
       <c r="A921" t="s">
         <v>566</v>
       </c>
@@ -22795,7 +22794,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="922" spans="1:6" hidden="1">
+    <row r="922" spans="1:6">
       <c r="A922" t="s">
         <v>568</v>
       </c>
@@ -22810,7 +22809,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="923" spans="1:6" hidden="1">
+    <row r="923" spans="1:6">
       <c r="A923" t="s">
         <v>480</v>
       </c>
@@ -22825,7 +22824,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="924" spans="1:6" hidden="1">
+    <row r="924" spans="1:6">
       <c r="A924" t="s">
         <v>482</v>
       </c>
@@ -22840,7 +22839,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="925" spans="1:6" hidden="1">
+    <row r="925" spans="1:6">
       <c r="A925" t="s">
         <v>484</v>
       </c>
@@ -22855,7 +22854,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="926" spans="1:6" hidden="1">
+    <row r="926" spans="1:6">
       <c r="A926" t="s">
         <v>486</v>
       </c>
@@ -22870,7 +22869,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="927" spans="1:6" hidden="1">
+    <row r="927" spans="1:6">
       <c r="A927" t="s">
         <v>488</v>
       </c>
@@ -22885,7 +22884,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="928" spans="1:6" hidden="1">
+    <row r="928" spans="1:6">
       <c r="A928" t="s">
         <v>490</v>
       </c>
@@ -22900,7 +22899,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="929" spans="1:6" hidden="1">
+    <row r="929" spans="1:6">
       <c r="A929" t="s">
         <v>492</v>
       </c>
@@ -22915,7 +22914,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="930" spans="1:6" hidden="1">
+    <row r="930" spans="1:6">
       <c r="A930" t="s">
         <v>494</v>
       </c>
@@ -22930,7 +22929,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="931" spans="1:6" hidden="1">
+    <row r="931" spans="1:6">
       <c r="A931" t="s">
         <v>570</v>
       </c>
@@ -22945,7 +22944,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="932" spans="1:6" hidden="1">
+    <row r="932" spans="1:6">
       <c r="A932" t="s">
         <v>572</v>
       </c>
@@ -22960,7 +22959,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="933" spans="1:6" hidden="1">
+    <row r="933" spans="1:6">
       <c r="A933" t="s">
         <v>574</v>
       </c>
@@ -22975,7 +22974,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="934" spans="1:6" hidden="1">
+    <row r="934" spans="1:6">
       <c r="A934" t="s">
         <v>576</v>
       </c>
@@ -22990,7 +22989,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="935" spans="1:6" hidden="1">
+    <row r="935" spans="1:6">
       <c r="A935" t="s">
         <v>332</v>
       </c>
@@ -23005,7 +23004,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="936" spans="1:6" hidden="1">
+    <row r="936" spans="1:6">
       <c r="A936" t="s">
         <v>334</v>
       </c>
@@ -23020,7 +23019,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="937" spans="1:6" hidden="1">
+    <row r="937" spans="1:6">
       <c r="A937" t="s">
         <v>336</v>
       </c>
@@ -23035,7 +23034,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="938" spans="1:6" hidden="1">
+    <row r="938" spans="1:6">
       <c r="A938" t="s">
         <v>338</v>
       </c>
@@ -23050,7 +23049,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="939" spans="1:6" hidden="1">
+    <row r="939" spans="1:6">
       <c r="A939" t="s">
         <v>340</v>
       </c>
@@ -23065,7 +23064,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="940" spans="1:6" hidden="1">
+    <row r="940" spans="1:6">
       <c r="A940" t="s">
         <v>342</v>
       </c>
@@ -23080,7 +23079,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="941" spans="1:6" hidden="1">
+    <row r="941" spans="1:6">
       <c r="A941" t="s">
         <v>1756</v>
       </c>
@@ -23095,7 +23094,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="942" spans="1:6" hidden="1">
+    <row r="942" spans="1:6">
       <c r="A942" t="s">
         <v>12</v>
       </c>
@@ -23110,7 +23109,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="943" spans="1:6" hidden="1">
+    <row r="943" spans="1:6">
       <c r="A943" t="s">
         <v>1722</v>
       </c>
@@ -23125,7 +23124,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="944" spans="1:6" hidden="1">
+    <row r="944" spans="1:6">
       <c r="A944" t="s">
         <v>14</v>
       </c>
@@ -23140,7 +23139,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="945" spans="1:6" hidden="1">
+    <row r="945" spans="1:6">
       <c r="A945" t="s">
         <v>1784</v>
       </c>
@@ -23155,7 +23154,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="946" spans="1:6" hidden="1">
+    <row r="946" spans="1:6">
       <c r="A946" t="s">
         <v>1760</v>
       </c>
@@ -23206,7 +23205,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="949" spans="1:6" hidden="1">
+    <row r="949" spans="1:6">
       <c r="A949" t="s">
         <v>1726</v>
       </c>
@@ -23221,7 +23220,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="950" spans="1:6" hidden="1">
+    <row r="950" spans="1:6">
       <c r="A950" t="s">
         <v>2030</v>
       </c>
@@ -23236,7 +23235,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="951" spans="1:6" hidden="1">
+    <row r="951" spans="1:6">
       <c r="A951" t="s">
         <v>1818</v>
       </c>
@@ -23251,7 +23250,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="952" spans="1:6" hidden="1">
+    <row r="952" spans="1:6">
       <c r="A952" t="s">
         <v>2216</v>
       </c>
@@ -23266,7 +23265,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="953" spans="1:6" hidden="1">
+    <row r="953" spans="1:6">
       <c r="A953" t="s">
         <v>1870</v>
       </c>
@@ -23281,7 +23280,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="954" spans="1:6" hidden="1">
+    <row r="954" spans="1:6">
       <c r="A954" t="s">
         <v>1888</v>
       </c>
@@ -23296,7 +23295,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="955" spans="1:6" hidden="1">
+    <row r="955" spans="1:6">
       <c r="A955" t="s">
         <v>1890</v>
       </c>
@@ -23311,7 +23310,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="956" spans="1:6" hidden="1">
+    <row r="956" spans="1:6">
       <c r="A956" t="s">
         <v>1892</v>
       </c>
@@ -23326,7 +23325,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="957" spans="1:6" hidden="1">
+    <row r="957" spans="1:6">
       <c r="A957" t="s">
         <v>1894</v>
       </c>
@@ -23341,7 +23340,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="958" spans="1:6" hidden="1">
+    <row r="958" spans="1:6">
       <c r="A958" t="s">
         <v>1896</v>
       </c>
@@ -23356,7 +23355,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="959" spans="1:6" hidden="1">
+    <row r="959" spans="1:6">
       <c r="A959" t="s">
         <v>1898</v>
       </c>
@@ -23371,7 +23370,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="960" spans="1:6" hidden="1">
+    <row r="960" spans="1:6">
       <c r="A960" t="s">
         <v>1900</v>
       </c>
@@ -23386,7 +23385,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="961" spans="1:6" hidden="1">
+    <row r="961" spans="1:6">
       <c r="A961" t="s">
         <v>1902</v>
       </c>
@@ -23401,7 +23400,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="962" spans="1:6" hidden="1">
+    <row r="962" spans="1:6">
       <c r="A962" t="s">
         <v>1904</v>
       </c>
@@ -23416,7 +23415,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="963" spans="1:6" hidden="1">
+    <row r="963" spans="1:6">
       <c r="A963" t="s">
         <v>1906</v>
       </c>
@@ -23431,7 +23430,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="964" spans="1:6" hidden="1">
+    <row r="964" spans="1:6">
       <c r="A964" t="s">
         <v>1872</v>
       </c>
@@ -23446,7 +23445,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="965" spans="1:6" hidden="1">
+    <row r="965" spans="1:6">
       <c r="A965" t="s">
         <v>1908</v>
       </c>
@@ -23461,7 +23460,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="966" spans="1:6" hidden="1">
+    <row r="966" spans="1:6">
       <c r="A966" t="s">
         <v>1910</v>
       </c>
@@ -23476,7 +23475,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="967" spans="1:6" hidden="1">
+    <row r="967" spans="1:6">
       <c r="A967" t="s">
         <v>1912</v>
       </c>
@@ -23491,7 +23490,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="968" spans="1:6" hidden="1">
+    <row r="968" spans="1:6">
       <c r="A968" t="s">
         <v>1914</v>
       </c>
@@ -23506,7 +23505,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="969" spans="1:6" hidden="1">
+    <row r="969" spans="1:6">
       <c r="A969" t="s">
         <v>1916</v>
       </c>
@@ -23521,7 +23520,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="970" spans="1:6" hidden="1">
+    <row r="970" spans="1:6">
       <c r="A970" t="s">
         <v>1918</v>
       </c>
@@ -23536,7 +23535,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="971" spans="1:6" hidden="1">
+    <row r="971" spans="1:6">
       <c r="A971" t="s">
         <v>1920</v>
       </c>
@@ -23551,7 +23550,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="972" spans="1:6" hidden="1">
+    <row r="972" spans="1:6">
       <c r="A972" t="s">
         <v>1922</v>
       </c>
@@ -23566,7 +23565,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="973" spans="1:6" hidden="1">
+    <row r="973" spans="1:6">
       <c r="A973" t="s">
         <v>1924</v>
       </c>
@@ -23581,7 +23580,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="974" spans="1:6" hidden="1">
+    <row r="974" spans="1:6">
       <c r="A974" t="s">
         <v>1926</v>
       </c>
@@ -23596,7 +23595,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="975" spans="1:6" hidden="1">
+    <row r="975" spans="1:6">
       <c r="A975" t="s">
         <v>1874</v>
       </c>
@@ -23611,7 +23610,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="976" spans="1:6" hidden="1">
+    <row r="976" spans="1:6">
       <c r="A976" t="s">
         <v>1928</v>
       </c>
@@ -23626,7 +23625,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="977" spans="1:6" hidden="1">
+    <row r="977" spans="1:6">
       <c r="A977" t="s">
         <v>1930</v>
       </c>
@@ -23641,7 +23640,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="978" spans="1:6" hidden="1">
+    <row r="978" spans="1:6">
       <c r="A978" t="s">
         <v>1932</v>
       </c>
@@ -23656,7 +23655,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="979" spans="1:6" hidden="1">
+    <row r="979" spans="1:6">
       <c r="A979" t="s">
         <v>1934</v>
       </c>
@@ -23671,7 +23670,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="980" spans="1:6" hidden="1">
+    <row r="980" spans="1:6">
       <c r="A980" t="s">
         <v>1936</v>
       </c>
@@ -23686,7 +23685,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="981" spans="1:6" hidden="1">
+    <row r="981" spans="1:6">
       <c r="A981" t="s">
         <v>1938</v>
       </c>
@@ -23701,7 +23700,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="982" spans="1:6" hidden="1">
+    <row r="982" spans="1:6">
       <c r="A982" t="s">
         <v>1940</v>
       </c>
@@ -23716,7 +23715,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="983" spans="1:6" hidden="1">
+    <row r="983" spans="1:6">
       <c r="A983" t="s">
         <v>1942</v>
       </c>
@@ -23731,7 +23730,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="984" spans="1:6" hidden="1">
+    <row r="984" spans="1:6">
       <c r="A984" t="s">
         <v>1944</v>
       </c>
@@ -23746,7 +23745,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="985" spans="1:6" hidden="1">
+    <row r="985" spans="1:6">
       <c r="A985" t="s">
         <v>1946</v>
       </c>
@@ -23761,7 +23760,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="986" spans="1:6" hidden="1">
+    <row r="986" spans="1:6">
       <c r="A986" t="s">
         <v>1876</v>
       </c>
@@ -23776,7 +23775,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="987" spans="1:6" hidden="1">
+    <row r="987" spans="1:6">
       <c r="A987" t="s">
         <v>1948</v>
       </c>
@@ -23791,7 +23790,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="988" spans="1:6" hidden="1">
+    <row r="988" spans="1:6">
       <c r="A988" t="s">
         <v>1950</v>
       </c>
@@ -23806,7 +23805,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="989" spans="1:6" hidden="1">
+    <row r="989" spans="1:6">
       <c r="A989" t="s">
         <v>1952</v>
       </c>
@@ -23821,7 +23820,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="990" spans="1:6" hidden="1">
+    <row r="990" spans="1:6">
       <c r="A990" t="s">
         <v>1954</v>
       </c>
@@ -23836,7 +23835,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="991" spans="1:6" hidden="1">
+    <row r="991" spans="1:6">
       <c r="A991" t="s">
         <v>1956</v>
       </c>
@@ -23851,7 +23850,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="992" spans="1:6" hidden="1">
+    <row r="992" spans="1:6">
       <c r="A992" t="s">
         <v>1958</v>
       </c>
@@ -23866,7 +23865,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="993" spans="1:6" hidden="1">
+    <row r="993" spans="1:6">
       <c r="A993" t="s">
         <v>1960</v>
       </c>
@@ -23881,7 +23880,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="994" spans="1:6" hidden="1">
+    <row r="994" spans="1:6">
       <c r="A994" t="s">
         <v>1962</v>
       </c>
@@ -23896,7 +23895,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="995" spans="1:6" hidden="1">
+    <row r="995" spans="1:6">
       <c r="A995" t="s">
         <v>1964</v>
       </c>
@@ -23911,7 +23910,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="996" spans="1:6" hidden="1">
+    <row r="996" spans="1:6">
       <c r="A996" t="s">
         <v>1966</v>
       </c>
@@ -23926,7 +23925,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="997" spans="1:6" hidden="1">
+    <row r="997" spans="1:6">
       <c r="A997" t="s">
         <v>1878</v>
       </c>
@@ -23941,7 +23940,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="998" spans="1:6" hidden="1">
+    <row r="998" spans="1:6">
       <c r="A998" t="s">
         <v>1968</v>
       </c>
@@ -23956,7 +23955,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="999" spans="1:6" hidden="1">
+    <row r="999" spans="1:6">
       <c r="A999" t="s">
         <v>1970</v>
       </c>
@@ -23971,7 +23970,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" hidden="1">
+    <row r="1000" spans="1:6">
       <c r="A1000" t="s">
         <v>1972</v>
       </c>
@@ -23986,7 +23985,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" hidden="1">
+    <row r="1001" spans="1:6">
       <c r="A1001" t="s">
         <v>1974</v>
       </c>
@@ -24001,7 +24000,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" hidden="1">
+    <row r="1002" spans="1:6">
       <c r="A1002" t="s">
         <v>1976</v>
       </c>
@@ -24016,7 +24015,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" hidden="1">
+    <row r="1003" spans="1:6">
       <c r="A1003" t="s">
         <v>1978</v>
       </c>
@@ -24031,7 +24030,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" hidden="1">
+    <row r="1004" spans="1:6">
       <c r="A1004" t="s">
         <v>1980</v>
       </c>
@@ -24046,7 +24045,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" hidden="1">
+    <row r="1005" spans="1:6">
       <c r="A1005" t="s">
         <v>1982</v>
       </c>
@@ -24061,7 +24060,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" hidden="1">
+    <row r="1006" spans="1:6">
       <c r="A1006" t="s">
         <v>1984</v>
       </c>
@@ -24076,7 +24075,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" hidden="1">
+    <row r="1007" spans="1:6">
       <c r="A1007" t="s">
         <v>1986</v>
       </c>
@@ -24091,7 +24090,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" hidden="1">
+    <row r="1008" spans="1:6">
       <c r="A1008" t="s">
         <v>1880</v>
       </c>
@@ -24106,7 +24105,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" hidden="1">
+    <row r="1009" spans="1:6">
       <c r="A1009" t="s">
         <v>1988</v>
       </c>
@@ -24121,7 +24120,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" hidden="1">
+    <row r="1010" spans="1:6">
       <c r="A1010" t="s">
         <v>1990</v>
       </c>
@@ -24136,7 +24135,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" hidden="1">
+    <row r="1011" spans="1:6">
       <c r="A1011" t="s">
         <v>1992</v>
       </c>
@@ -24151,7 +24150,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" hidden="1">
+    <row r="1012" spans="1:6">
       <c r="A1012" t="s">
         <v>1994</v>
       </c>
@@ -24166,7 +24165,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" hidden="1">
+    <row r="1013" spans="1:6">
       <c r="A1013" t="s">
         <v>1996</v>
       </c>
@@ -24181,7 +24180,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" hidden="1">
+    <row r="1014" spans="1:6">
       <c r="A1014" t="s">
         <v>1998</v>
       </c>
@@ -24196,7 +24195,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1015" spans="1:6" hidden="1">
+    <row r="1015" spans="1:6">
       <c r="A1015" t="s">
         <v>2000</v>
       </c>
@@ -24211,7 +24210,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" hidden="1">
+    <row r="1016" spans="1:6">
       <c r="A1016" t="s">
         <v>2002</v>
       </c>
@@ -24226,7 +24225,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1017" spans="1:6" hidden="1">
+    <row r="1017" spans="1:6">
       <c r="A1017" t="s">
         <v>2004</v>
       </c>
@@ -24241,7 +24240,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1018" spans="1:6" hidden="1">
+    <row r="1018" spans="1:6">
       <c r="A1018" t="s">
         <v>2006</v>
       </c>
@@ -24256,7 +24255,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" hidden="1">
+    <row r="1019" spans="1:6">
       <c r="A1019" t="s">
         <v>1882</v>
       </c>
@@ -24271,7 +24270,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" hidden="1">
+    <row r="1020" spans="1:6">
       <c r="A1020" t="s">
         <v>2008</v>
       </c>
@@ -24286,7 +24285,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" hidden="1">
+    <row r="1021" spans="1:6">
       <c r="A1021" t="s">
         <v>2010</v>
       </c>
@@ -24301,7 +24300,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" hidden="1">
+    <row r="1022" spans="1:6">
       <c r="A1022" t="s">
         <v>2012</v>
       </c>
@@ -24316,7 +24315,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" hidden="1">
+    <row r="1023" spans="1:6">
       <c r="A1023" t="s">
         <v>2014</v>
       </c>
@@ -24331,7 +24330,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" hidden="1">
+    <row r="1024" spans="1:6">
       <c r="A1024" t="s">
         <v>2016</v>
       </c>
@@ -24346,7 +24345,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" hidden="1">
+    <row r="1025" spans="1:6">
       <c r="A1025" t="s">
         <v>2018</v>
       </c>
@@ -24361,7 +24360,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" hidden="1">
+    <row r="1026" spans="1:6">
       <c r="A1026" t="s">
         <v>2020</v>
       </c>
@@ -24376,7 +24375,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1027" spans="1:6" hidden="1">
+    <row r="1027" spans="1:6">
       <c r="A1027" t="s">
         <v>2022</v>
       </c>
@@ -24391,7 +24390,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1028" spans="1:6" hidden="1">
+    <row r="1028" spans="1:6">
       <c r="A1028" t="s">
         <v>2024</v>
       </c>
@@ -24406,7 +24405,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" hidden="1">
+    <row r="1029" spans="1:6">
       <c r="A1029" t="s">
         <v>2026</v>
       </c>
@@ -24421,7 +24420,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1030" spans="1:6" hidden="1">
+    <row r="1030" spans="1:6">
       <c r="A1030" t="s">
         <v>1884</v>
       </c>
@@ -24436,7 +24435,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1031" spans="1:6" hidden="1">
+    <row r="1031" spans="1:6">
       <c r="A1031" t="s">
         <v>2028</v>
       </c>
@@ -24451,7 +24450,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" hidden="1">
+    <row r="1032" spans="1:6">
       <c r="A1032" t="s">
         <v>1886</v>
       </c>
@@ -24466,7 +24465,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1033" spans="1:6" hidden="1">
+    <row r="1033" spans="1:6">
       <c r="A1033" t="s">
         <v>1868</v>
       </c>
@@ -24481,7 +24480,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1034" spans="1:6" hidden="1">
+    <row r="1034" spans="1:6">
       <c r="A1034" t="s">
         <v>1172</v>
       </c>
@@ -24496,7 +24495,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1035" spans="1:6" hidden="1">
+    <row r="1035" spans="1:6">
       <c r="A1035" t="s">
         <v>1168</v>
       </c>
@@ -24511,7 +24510,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" hidden="1">
+    <row r="1036" spans="1:6">
       <c r="A1036" t="s">
         <v>1170</v>
       </c>
@@ -24526,7 +24525,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1037" spans="1:6" hidden="1">
+    <row r="1037" spans="1:6">
       <c r="A1037" t="s">
         <v>1022</v>
       </c>
@@ -24541,7 +24540,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1038" spans="1:6" hidden="1">
+    <row r="1038" spans="1:6">
       <c r="A1038" t="s">
         <v>1024</v>
       </c>
@@ -24556,7 +24555,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1039" spans="1:6" hidden="1">
+    <row r="1039" spans="1:6">
       <c r="A1039" t="s">
         <v>1026</v>
       </c>
@@ -24571,7 +24570,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1040" spans="1:6" hidden="1">
+    <row r="1040" spans="1:6">
       <c r="A1040" t="s">
         <v>1028</v>
       </c>
@@ -24586,7 +24585,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1041" spans="1:6" hidden="1">
+    <row r="1041" spans="1:6">
       <c r="A1041" t="s">
         <v>1030</v>
       </c>
@@ -24601,7 +24600,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" hidden="1">
+    <row r="1042" spans="1:6">
       <c r="A1042" t="s">
         <v>1032</v>
       </c>
@@ -24616,7 +24615,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" hidden="1">
+    <row r="1043" spans="1:6">
       <c r="A1043" t="s">
         <v>1034</v>
       </c>
@@ -24631,7 +24630,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" hidden="1">
+    <row r="1044" spans="1:6">
       <c r="A1044" t="s">
         <v>1036</v>
       </c>
@@ -24646,7 +24645,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1045" spans="1:6" hidden="1">
+    <row r="1045" spans="1:6">
       <c r="A1045" t="s">
         <v>1038</v>
       </c>
@@ -24661,7 +24660,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1046" spans="1:6" hidden="1">
+    <row r="1046" spans="1:6">
       <c r="A1046" t="s">
         <v>1040</v>
       </c>
@@ -24676,7 +24675,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1047" spans="1:6" hidden="1">
+    <row r="1047" spans="1:6">
       <c r="A1047" t="s">
         <v>1042</v>
       </c>
@@ -24691,7 +24690,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1048" spans="1:6" hidden="1">
+    <row r="1048" spans="1:6">
       <c r="A1048" t="s">
         <v>1044</v>
       </c>
@@ -24706,7 +24705,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1049" spans="1:6" hidden="1">
+    <row r="1049" spans="1:6">
       <c r="A1049" t="s">
         <v>1046</v>
       </c>
@@ -24721,7 +24720,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1050" spans="1:6" hidden="1">
+    <row r="1050" spans="1:6">
       <c r="A1050" t="s">
         <v>1048</v>
       </c>
@@ -24736,7 +24735,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1051" spans="1:6" hidden="1">
+    <row r="1051" spans="1:6">
       <c r="A1051" t="s">
         <v>1050</v>
       </c>
@@ -24751,7 +24750,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1052" spans="1:6" hidden="1">
+    <row r="1052" spans="1:6">
       <c r="A1052" t="s">
         <v>1052</v>
       </c>
@@ -24766,7 +24765,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1053" spans="1:6" hidden="1">
+    <row r="1053" spans="1:6">
       <c r="A1053" t="s">
         <v>1054</v>
       </c>
@@ -24781,7 +24780,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1054" spans="1:6" hidden="1">
+    <row r="1054" spans="1:6">
       <c r="A1054" t="s">
         <v>1056</v>
       </c>
@@ -24796,7 +24795,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1055" spans="1:6" hidden="1">
+    <row r="1055" spans="1:6">
       <c r="A1055" t="s">
         <v>1058</v>
       </c>
@@ -24811,7 +24810,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1056" spans="1:6" hidden="1">
+    <row r="1056" spans="1:6">
       <c r="A1056" t="s">
         <v>1060</v>
       </c>
@@ -24826,7 +24825,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1057" spans="1:6" hidden="1">
+    <row r="1057" spans="1:6">
       <c r="A1057" t="s">
         <v>1062</v>
       </c>
@@ -24841,7 +24840,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1058" spans="1:6" hidden="1">
+    <row r="1058" spans="1:6">
       <c r="A1058" t="s">
         <v>1064</v>
       </c>
@@ -24856,7 +24855,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1059" spans="1:6" hidden="1">
+    <row r="1059" spans="1:6">
       <c r="A1059" t="s">
         <v>1066</v>
       </c>
@@ -24871,7 +24870,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1060" spans="1:6" hidden="1">
+    <row r="1060" spans="1:6">
       <c r="A1060" t="s">
         <v>1068</v>
       </c>
@@ -24886,7 +24885,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1061" spans="1:6" hidden="1">
+    <row r="1061" spans="1:6">
       <c r="A1061" t="s">
         <v>1070</v>
       </c>
@@ -24901,7 +24900,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1062" spans="1:6" hidden="1">
+    <row r="1062" spans="1:6">
       <c r="A1062" t="s">
         <v>1072</v>
       </c>
@@ -24916,7 +24915,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1063" spans="1:6" hidden="1">
+    <row r="1063" spans="1:6">
       <c r="A1063" t="s">
         <v>1074</v>
       </c>
@@ -24931,7 +24930,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1064" spans="1:6" hidden="1">
+    <row r="1064" spans="1:6">
       <c r="A1064" t="s">
         <v>1076</v>
       </c>
@@ -24946,7 +24945,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1065" spans="1:6" hidden="1">
+    <row r="1065" spans="1:6">
       <c r="A1065" t="s">
         <v>1078</v>
       </c>
@@ -24961,7 +24960,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1066" spans="1:6" hidden="1">
+    <row r="1066" spans="1:6">
       <c r="A1066" t="s">
         <v>1080</v>
       </c>
@@ -24976,7 +24975,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1067" spans="1:6" hidden="1">
+    <row r="1067" spans="1:6">
       <c r="A1067" t="s">
         <v>1082</v>
       </c>
@@ -24991,7 +24990,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1068" spans="1:6" hidden="1">
+    <row r="1068" spans="1:6">
       <c r="A1068" t="s">
         <v>1084</v>
       </c>
@@ -25006,7 +25005,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1069" spans="1:6" hidden="1">
+    <row r="1069" spans="1:6">
       <c r="A1069" t="s">
         <v>1086</v>
       </c>
@@ -25021,7 +25020,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1070" spans="1:6" hidden="1">
+    <row r="1070" spans="1:6">
       <c r="A1070" t="s">
         <v>1088</v>
       </c>
@@ -25036,7 +25035,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1071" spans="1:6" hidden="1">
+    <row r="1071" spans="1:6">
       <c r="A1071" t="s">
         <v>1090</v>
       </c>
@@ -25051,7 +25050,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1072" spans="1:6" hidden="1">
+    <row r="1072" spans="1:6">
       <c r="A1072" t="s">
         <v>1092</v>
       </c>
@@ -25066,7 +25065,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1073" spans="1:6" hidden="1">
+    <row r="1073" spans="1:6">
       <c r="A1073" t="s">
         <v>1094</v>
       </c>
@@ -25081,7 +25080,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1074" spans="1:6" hidden="1">
+    <row r="1074" spans="1:6">
       <c r="A1074" t="s">
         <v>1096</v>
       </c>
@@ -25096,7 +25095,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1075" spans="1:6" hidden="1">
+    <row r="1075" spans="1:6">
       <c r="A1075" t="s">
         <v>1098</v>
       </c>
@@ -25111,7 +25110,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1076" spans="1:6" hidden="1">
+    <row r="1076" spans="1:6">
       <c r="A1076" t="s">
         <v>1100</v>
       </c>
@@ -25126,7 +25125,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1077" spans="1:6" hidden="1">
+    <row r="1077" spans="1:6">
       <c r="A1077" t="s">
         <v>1102</v>
       </c>
@@ -25141,7 +25140,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1078" spans="1:6" hidden="1">
+    <row r="1078" spans="1:6">
       <c r="A1078" t="s">
         <v>1104</v>
       </c>
@@ -25156,7 +25155,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1079" spans="1:6" hidden="1">
+    <row r="1079" spans="1:6">
       <c r="A1079" t="s">
         <v>1106</v>
       </c>
@@ -25171,7 +25170,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1080" spans="1:6" hidden="1">
+    <row r="1080" spans="1:6">
       <c r="A1080" t="s">
         <v>1108</v>
       </c>
@@ -25186,7 +25185,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1081" spans="1:6" hidden="1">
+    <row r="1081" spans="1:6">
       <c r="A1081" t="s">
         <v>1110</v>
       </c>
@@ -25201,7 +25200,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1082" spans="1:6" hidden="1">
+    <row r="1082" spans="1:6">
       <c r="A1082" t="s">
         <v>1112</v>
       </c>
@@ -25216,7 +25215,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1083" spans="1:6" hidden="1">
+    <row r="1083" spans="1:6">
       <c r="A1083" t="s">
         <v>1114</v>
       </c>
@@ -25231,7 +25230,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1084" spans="1:6" hidden="1">
+    <row r="1084" spans="1:6">
       <c r="A1084" t="s">
         <v>1116</v>
       </c>
@@ -25246,7 +25245,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1085" spans="1:6" hidden="1">
+    <row r="1085" spans="1:6">
       <c r="A1085" t="s">
         <v>1118</v>
       </c>
@@ -25261,7 +25260,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1086" spans="1:6" hidden="1">
+    <row r="1086" spans="1:6">
       <c r="A1086" t="s">
         <v>1120</v>
       </c>
@@ -25276,7 +25275,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1087" spans="1:6" hidden="1">
+    <row r="1087" spans="1:6">
       <c r="A1087" t="s">
         <v>1122</v>
       </c>
@@ -25291,7 +25290,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1088" spans="1:6" hidden="1">
+    <row r="1088" spans="1:6">
       <c r="A1088" t="s">
         <v>1124</v>
       </c>
@@ -25306,7 +25305,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" hidden="1">
+    <row r="1089" spans="1:6">
       <c r="A1089" t="s">
         <v>1126</v>
       </c>
@@ -25321,7 +25320,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" hidden="1">
+    <row r="1090" spans="1:6">
       <c r="A1090" t="s">
         <v>1128</v>
       </c>
@@ -25336,7 +25335,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" hidden="1">
+    <row r="1091" spans="1:6">
       <c r="A1091" t="s">
         <v>1130</v>
       </c>
@@ -25351,7 +25350,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1092" spans="1:6" hidden="1">
+    <row r="1092" spans="1:6">
       <c r="A1092" t="s">
         <v>1132</v>
       </c>
@@ -25366,7 +25365,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" hidden="1">
+    <row r="1093" spans="1:6">
       <c r="A1093" t="s">
         <v>1134</v>
       </c>
@@ -25381,7 +25380,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1094" spans="1:6" hidden="1">
+    <row r="1094" spans="1:6">
       <c r="A1094" t="s">
         <v>1136</v>
       </c>
@@ -25396,7 +25395,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1095" spans="1:6" hidden="1">
+    <row r="1095" spans="1:6">
       <c r="A1095" t="s">
         <v>1138</v>
       </c>
@@ -25411,7 +25410,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1096" spans="1:6" hidden="1">
+    <row r="1096" spans="1:6">
       <c r="A1096" t="s">
         <v>1140</v>
       </c>
@@ -25426,7 +25425,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1097" spans="1:6" hidden="1">
+    <row r="1097" spans="1:6">
       <c r="A1097" t="s">
         <v>1142</v>
       </c>
@@ -25441,7 +25440,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1098" spans="1:6" hidden="1">
+    <row r="1098" spans="1:6">
       <c r="A1098" t="s">
         <v>1144</v>
       </c>
@@ -25456,7 +25455,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1099" spans="1:6" hidden="1">
+    <row r="1099" spans="1:6">
       <c r="A1099" t="s">
         <v>1146</v>
       </c>
@@ -25471,7 +25470,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1100" spans="1:6" hidden="1">
+    <row r="1100" spans="1:6">
       <c r="A1100" t="s">
         <v>1148</v>
       </c>
@@ -25486,7 +25485,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1101" spans="1:6" hidden="1">
+    <row r="1101" spans="1:6">
       <c r="A1101" t="s">
         <v>1150</v>
       </c>
@@ -25501,7 +25500,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1102" spans="1:6" hidden="1">
+    <row r="1102" spans="1:6">
       <c r="A1102" t="s">
         <v>1152</v>
       </c>
@@ -25516,7 +25515,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1103" spans="1:6" hidden="1">
+    <row r="1103" spans="1:6">
       <c r="A1103" t="s">
         <v>1154</v>
       </c>
@@ -25531,7 +25530,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1104" spans="1:6" hidden="1">
+    <row r="1104" spans="1:6">
       <c r="A1104" t="s">
         <v>1156</v>
       </c>
@@ -25546,7 +25545,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1105" spans="1:6" hidden="1">
+    <row r="1105" spans="1:6">
       <c r="A1105" t="s">
         <v>1158</v>
       </c>
@@ -25561,7 +25560,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1106" spans="1:6" hidden="1">
+    <row r="1106" spans="1:6">
       <c r="A1106" t="s">
         <v>1160</v>
       </c>
@@ -25576,7 +25575,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1107" spans="1:6" hidden="1">
+    <row r="1107" spans="1:6">
       <c r="A1107" t="s">
         <v>1162</v>
       </c>
@@ -25591,7 +25590,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1108" spans="1:6" hidden="1">
+    <row r="1108" spans="1:6">
       <c r="A1108" t="s">
         <v>1164</v>
       </c>
@@ -25606,7 +25605,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1109" spans="1:6" hidden="1">
+    <row r="1109" spans="1:6">
       <c r="A1109" t="s">
         <v>1166</v>
       </c>
@@ -25621,7 +25620,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1110" spans="1:6" hidden="1">
+    <row r="1110" spans="1:6">
       <c r="A1110" t="s">
         <v>1174</v>
       </c>
@@ -25636,7 +25635,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1111" spans="1:6" hidden="1">
+    <row r="1111" spans="1:6">
       <c r="A1111" t="s">
         <v>1176</v>
       </c>
@@ -25651,7 +25650,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1112" spans="1:6" hidden="1">
+    <row r="1112" spans="1:6">
       <c r="A1112" t="s">
         <v>1178</v>
       </c>
@@ -25666,7 +25665,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1113" spans="1:6" hidden="1">
+    <row r="1113" spans="1:6">
       <c r="A1113" t="s">
         <v>1180</v>
       </c>
@@ -25681,7 +25680,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1114" spans="1:6" hidden="1">
+    <row r="1114" spans="1:6">
       <c r="A1114" t="s">
         <v>1182</v>
       </c>
@@ -25696,7 +25695,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1115" spans="1:6" hidden="1">
+    <row r="1115" spans="1:6">
       <c r="A1115" t="s">
         <v>1184</v>
       </c>
@@ -25711,7 +25710,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1116" spans="1:6" hidden="1">
+    <row r="1116" spans="1:6">
       <c r="A1116" t="s">
         <v>1186</v>
       </c>
@@ -25744,7 +25743,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1118" spans="1:6" hidden="1">
+    <row r="1118" spans="1:6">
       <c r="A1118" t="s">
         <v>1778</v>
       </c>
@@ -25759,7 +25758,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="1119" spans="1:6" hidden="1">
+    <row r="1119" spans="1:6">
       <c r="A1119" t="s">
         <v>2032</v>
       </c>
@@ -25775,18 +25774,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1119" xr:uid="{9F913139-5BD2-4A68-816A-F8D58E27C68E}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="x"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="F"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -25796,7 +25783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3918117-006D-4ADF-8B53-EA27F0E01106}">
   <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A164" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
